--- a/NAPS_WordNet_Objects.xlsx
+++ b/NAPS_WordNet_Objects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko Horvat\Desktop\Desktop Folders\Desktop Folders_04\135_MDPI Data_NAPS WordNet\01_Dataset\03_Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E10B481-707A-4A4B-8E3A-E01FDB278D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62616375-A81A-4BB4-A465-8C84BF47E820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15345" xr2:uid="{0DED1AE6-1BBA-4F84-A2F2-7573A5BB43F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0DED1AE6-1BBA-4F84-A2F2-7573A5BB43F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Objects" sheetId="1" r:id="rId1"/>
@@ -3005,7 +3005,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E9A85C-3EA2-4679-B0B4-38E92D82E224}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W332"/>
+  <dimension ref="A1:X372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3018,7 +3018,7 @@
     <col min="11" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1">
+    <row r="1" spans="1:24" s="4" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3049,21 +3049,22 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3085,8 +3086,22 @@
       <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -3105,8 +3120,22 @@
       <c r="F3" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -3125,8 +3154,22 @@
       <c r="F4" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -3148,8 +3191,22 @@
       <c r="G5" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -3165,8 +3222,22 @@
       <c r="E6" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -3182,8 +3253,22 @@
       <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -3202,8 +3287,22 @@
       <c r="F8" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -3219,8 +3318,22 @@
       <c r="E9" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="9" t="s">
         <v>43</v>
       </c>
@@ -3243,21 +3356,22 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -3273,8 +3387,22 @@
       <c r="E11" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -3290,8 +3418,22 @@
       <c r="E12" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -3310,8 +3452,22 @@
       <c r="F13" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -3330,8 +3486,22 @@
       <c r="F14" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -3347,8 +3517,22 @@
       <c r="E15" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="5" t="s">
         <v>63</v>
       </c>
@@ -3361,8 +3545,22 @@
       <c r="D16" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="5" t="s">
         <v>64</v>
       </c>
@@ -3381,8 +3579,22 @@
       <c r="F17" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
@@ -3401,8 +3613,22 @@
       <c r="F18" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
@@ -3418,8 +3644,22 @@
       <c r="E19" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="5" t="s">
         <v>73</v>
       </c>
@@ -3435,8 +3675,22 @@
       <c r="E20" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
@@ -3452,8 +3706,22 @@
       <c r="E21" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="5" t="s">
         <v>78</v>
       </c>
@@ -3469,8 +3737,22 @@
       <c r="E22" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
@@ -3483,8 +3765,22 @@
       <c r="D23" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
@@ -3500,8 +3796,22 @@
       <c r="E24" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="5" t="s">
         <v>82</v>
       </c>
@@ -3523,8 +3833,22 @@
       <c r="G25" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
@@ -3543,8 +3867,22 @@
       <c r="F26" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="5" t="s">
         <v>89</v>
       </c>
@@ -3560,8 +3898,22 @@
       <c r="E27" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="5" t="s">
         <v>93</v>
       </c>
@@ -3574,8 +3926,22 @@
       <c r="D28" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="5" t="s">
         <v>94</v>
       </c>
@@ -3591,8 +3957,22 @@
       <c r="E29" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="5" t="s">
         <v>95</v>
       </c>
@@ -3605,8 +3985,22 @@
       <c r="D30" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="5" t="s">
         <v>98</v>
       </c>
@@ -3622,8 +4016,22 @@
       <c r="E31" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="5" t="s">
         <v>101</v>
       </c>
@@ -3639,8 +4047,22 @@
       <c r="E32" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="5" t="s">
         <v>103</v>
       </c>
@@ -3656,8 +4078,22 @@
       <c r="E33" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="5" t="s">
         <v>107</v>
       </c>
@@ -3673,8 +4109,22 @@
       <c r="E34" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="5" t="s">
         <v>109</v>
       </c>
@@ -3693,8 +4143,22 @@
       <c r="F35" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="5" t="s">
         <v>112</v>
       </c>
@@ -3710,8 +4174,22 @@
       <c r="E36" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="5" t="s">
         <v>114</v>
       </c>
@@ -3727,8 +4205,22 @@
       <c r="E37" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="5" t="s">
         <v>118</v>
       </c>
@@ -3747,8 +4239,22 @@
       <c r="F38" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="5" t="s">
         <v>121</v>
       </c>
@@ -3767,8 +4273,22 @@
       <c r="F39" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="5" t="s">
         <v>126</v>
       </c>
@@ -3784,8 +4304,22 @@
       <c r="E40" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="5" t="s">
         <v>128</v>
       </c>
@@ -3798,8 +4332,22 @@
       <c r="D41" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="5" t="s">
         <v>129</v>
       </c>
@@ -3815,8 +4363,22 @@
       <c r="E42" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="5" t="s">
         <v>133</v>
       </c>
@@ -3829,8 +4391,22 @@
       <c r="D43" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="5" t="s">
         <v>134</v>
       </c>
@@ -3846,8 +4422,22 @@
       <c r="E44" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="5" t="s">
         <v>138</v>
       </c>
@@ -3863,8 +4453,22 @@
       <c r="E45" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" s="5" t="s">
         <v>140</v>
       </c>
@@ -3877,8 +4481,22 @@
       <c r="D46" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" s="5" t="s">
         <v>141</v>
       </c>
@@ -3897,8 +4515,22 @@
       <c r="F47" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" s="5" t="s">
         <v>144</v>
       </c>
@@ -3914,8 +4546,22 @@
       <c r="E48" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" s="5" t="s">
         <v>148</v>
       </c>
@@ -3931,8 +4577,22 @@
       <c r="E49" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" s="5" t="s">
         <v>151</v>
       </c>
@@ -3948,8 +4608,22 @@
       <c r="E50" s="7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="5" t="s">
         <v>154</v>
       </c>
@@ -3965,8 +4639,22 @@
       <c r="E51" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" s="5" t="s">
         <v>158</v>
       </c>
@@ -3985,8 +4673,22 @@
       <c r="F52" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" s="5" t="s">
         <v>159</v>
       </c>
@@ -4005,8 +4707,22 @@
       <c r="F53" s="7" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" s="5" t="s">
         <v>161</v>
       </c>
@@ -4025,8 +4741,22 @@
       <c r="F54" s="7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" s="5" t="s">
         <v>163</v>
       </c>
@@ -4045,8 +4775,22 @@
       <c r="F55" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" s="5" t="s">
         <v>166</v>
       </c>
@@ -4065,8 +4809,22 @@
       <c r="F56" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" s="5" t="s">
         <v>170</v>
       </c>
@@ -4088,8 +4846,22 @@
       <c r="G57" s="7" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" s="5" t="s">
         <v>176</v>
       </c>
@@ -4108,8 +4880,22 @@
       <c r="F58" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" s="5" t="s">
         <v>178</v>
       </c>
@@ -4128,8 +4914,22 @@
       <c r="F59" s="7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" s="5" t="s">
         <v>182</v>
       </c>
@@ -4148,8 +4948,22 @@
       <c r="F60" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" s="5" t="s">
         <v>186</v>
       </c>
@@ -4168,8 +4982,22 @@
       <c r="F61" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" s="5" t="s">
         <v>188</v>
       </c>
@@ -4185,8 +5013,22 @@
       <c r="E62" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" s="5" t="s">
         <v>189</v>
       </c>
@@ -4205,8 +5047,22 @@
       <c r="F63" s="7" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" s="5" t="s">
         <v>191</v>
       </c>
@@ -4228,8 +5084,22 @@
       <c r="G64" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="5" t="s">
         <v>193</v>
       </c>
@@ -4248,8 +5118,22 @@
       <c r="F65" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" s="5" t="s">
         <v>195</v>
       </c>
@@ -4265,8 +5149,22 @@
       <c r="E66" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="5" t="s">
         <v>198</v>
       </c>
@@ -4279,8 +5177,22 @@
       <c r="D67" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" s="5" t="s">
         <v>199</v>
       </c>
@@ -4293,8 +5205,22 @@
       <c r="D68" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" s="5" t="s">
         <v>200</v>
       </c>
@@ -4310,8 +5236,22 @@
       <c r="E69" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" s="5" t="s">
         <v>201</v>
       </c>
@@ -4327,8 +5267,22 @@
       <c r="E70" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" s="5" t="s">
         <v>202</v>
       </c>
@@ -4341,8 +5295,22 @@
       <c r="D71" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" s="5" t="s">
         <v>203</v>
       </c>
@@ -4361,8 +5329,22 @@
       <c r="F72" s="7" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" s="5" t="s">
         <v>207</v>
       </c>
@@ -4381,8 +5363,22 @@
       <c r="F73" s="7" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" s="5" t="s">
         <v>212</v>
       </c>
@@ -4404,8 +5400,22 @@
       <c r="G74" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" s="5" t="s">
         <v>216</v>
       </c>
@@ -4418,8 +5428,22 @@
       <c r="D75" s="7" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" s="5" t="s">
         <v>219</v>
       </c>
@@ -4438,8 +5462,22 @@
       <c r="F76" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" s="5" t="s">
         <v>221</v>
       </c>
@@ -4455,8 +5493,22 @@
       <c r="E77" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" s="5" t="s">
         <v>223</v>
       </c>
@@ -4472,8 +5524,22 @@
       <c r="E78" s="7" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" s="5" t="s">
         <v>227</v>
       </c>
@@ -4486,8 +5552,22 @@
       <c r="D79" s="7" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" s="5" t="s">
         <v>230</v>
       </c>
@@ -4503,8 +5583,22 @@
       <c r="E80" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" s="5" t="s">
         <v>232</v>
       </c>
@@ -4520,8 +5614,22 @@
       <c r="E81" s="7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" s="5" t="s">
         <v>234</v>
       </c>
@@ -4534,8 +5642,22 @@
       <c r="D82" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" s="5" t="s">
         <v>235</v>
       </c>
@@ -4548,8 +5670,22 @@
       <c r="D83" s="7" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" s="5" t="s">
         <v>238</v>
       </c>
@@ -4568,8 +5704,22 @@
       <c r="F84" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" s="5" t="s">
         <v>239</v>
       </c>
@@ -4591,8 +5741,22 @@
       <c r="G85" s="7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" s="5" t="s">
         <v>243</v>
       </c>
@@ -4614,8 +5778,22 @@
       <c r="G86" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" s="5" t="s">
         <v>244</v>
       </c>
@@ -4628,8 +5806,22 @@
       <c r="D87" s="7" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" s="5" t="s">
         <v>247</v>
       </c>
@@ -4645,8 +5837,22 @@
       <c r="E88" s="7" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" s="5" t="s">
         <v>251</v>
       </c>
@@ -4662,8 +5868,22 @@
       <c r="E89" s="7" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" s="5" t="s">
         <v>254</v>
       </c>
@@ -4676,8 +5896,22 @@
       <c r="D90" s="12" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" s="5" t="s">
         <v>257</v>
       </c>
@@ -4690,8 +5924,22 @@
       <c r="D91" s="7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+      <c r="X91"/>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" s="5" t="s">
         <v>259</v>
       </c>
@@ -4713,8 +5961,22 @@
       <c r="G92" s="7" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" s="5" t="s">
         <v>263</v>
       </c>
@@ -4730,8 +5992,22 @@
       <c r="E93" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" s="5" t="s">
         <v>264</v>
       </c>
@@ -4744,8 +6020,22 @@
       <c r="D94" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" s="5" t="s">
         <v>265</v>
       </c>
@@ -4767,8 +6057,22 @@
       <c r="G95" s="7" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
+      <c r="X95"/>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" s="5" t="s">
         <v>268</v>
       </c>
@@ -4781,8 +6085,22 @@
       <c r="D96" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96"/>
+      <c r="X96"/>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" s="5" t="s">
         <v>269</v>
       </c>
@@ -4801,8 +6119,22 @@
       <c r="F97" s="7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+      <c r="X97"/>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" s="5" t="s">
         <v>272</v>
       </c>
@@ -4818,8 +6150,22 @@
       <c r="E98" s="7" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98"/>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" s="5" t="s">
         <v>276</v>
       </c>
@@ -4832,8 +6178,22 @@
       <c r="D99" s="7" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99"/>
+      <c r="W99"/>
+      <c r="X99"/>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" s="5" t="s">
         <v>279</v>
       </c>
@@ -4849,8 +6209,22 @@
       <c r="E100" s="7" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
+      <c r="X100"/>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" s="5" t="s">
         <v>283</v>
       </c>
@@ -4866,8 +6240,22 @@
       <c r="E101" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+      <c r="X101"/>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" s="5" t="s">
         <v>284</v>
       </c>
@@ -4886,8 +6274,22 @@
       <c r="F102" s="7" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102"/>
+      <c r="U102"/>
+      <c r="V102"/>
+      <c r="W102"/>
+      <c r="X102"/>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" s="5" t="s">
         <v>286</v>
       </c>
@@ -4906,8 +6308,22 @@
       <c r="F103" s="7" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103"/>
+      <c r="W103"/>
+      <c r="X103"/>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" s="5" t="s">
         <v>289</v>
       </c>
@@ -4923,8 +6339,22 @@
       <c r="E104" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+      <c r="V104"/>
+      <c r="W104"/>
+      <c r="X104"/>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" s="5" t="s">
         <v>291</v>
       </c>
@@ -4937,8 +6367,22 @@
       <c r="D105" s="7" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105"/>
+      <c r="V105"/>
+      <c r="W105"/>
+      <c r="X105"/>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" s="5" t="s">
         <v>292</v>
       </c>
@@ -4954,8 +6398,22 @@
       <c r="E106" s="7" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+      <c r="S106"/>
+      <c r="T106"/>
+      <c r="U106"/>
+      <c r="V106"/>
+      <c r="W106"/>
+      <c r="X106"/>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" s="5" t="s">
         <v>296</v>
       </c>
@@ -4971,8 +6429,22 @@
       <c r="E107" s="7" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107"/>
+      <c r="W107"/>
+      <c r="X107"/>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" s="5" t="s">
         <v>300</v>
       </c>
@@ -4988,8 +6460,22 @@
       <c r="E108" s="7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108"/>
+      <c r="T108"/>
+      <c r="U108"/>
+      <c r="V108"/>
+      <c r="W108"/>
+      <c r="X108"/>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" s="5" t="s">
         <v>304</v>
       </c>
@@ -5005,8 +6491,22 @@
       <c r="E109" s="7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+      <c r="S109"/>
+      <c r="T109"/>
+      <c r="U109"/>
+      <c r="V109"/>
+      <c r="W109"/>
+      <c r="X109"/>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" s="5" t="s">
         <v>308</v>
       </c>
@@ -5019,8 +6519,22 @@
       <c r="D110" s="7" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110"/>
+      <c r="V110"/>
+      <c r="W110"/>
+      <c r="X110"/>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" s="5" t="s">
         <v>311</v>
       </c>
@@ -5036,8 +6550,22 @@
       <c r="E111" s="7" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111"/>
+      <c r="T111"/>
+      <c r="U111"/>
+      <c r="V111"/>
+      <c r="W111"/>
+      <c r="X111"/>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" s="5" t="s">
         <v>315</v>
       </c>
@@ -5053,8 +6581,22 @@
       <c r="E112" s="7" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+      <c r="X112"/>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" s="5" t="s">
         <v>318</v>
       </c>
@@ -5073,8 +6615,22 @@
       <c r="F113" s="7" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="114" spans="1:23">
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" s="5" t="s">
         <v>323</v>
       </c>
@@ -5090,8 +6646,22 @@
       <c r="E114" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="115" spans="1:23">
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" s="5" t="s">
         <v>325</v>
       </c>
@@ -5110,8 +6680,22 @@
       <c r="F115" s="7" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="116" spans="1:23">
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+      <c r="V115"/>
+      <c r="W115"/>
+      <c r="X115"/>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" s="5" t="s">
         <v>329</v>
       </c>
@@ -5127,8 +6711,22 @@
       <c r="E116" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="117" spans="1:23">
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116"/>
+      <c r="V116"/>
+      <c r="W116"/>
+      <c r="X116"/>
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117" s="5" t="s">
         <v>332</v>
       </c>
@@ -5150,8 +6748,22 @@
       <c r="G117" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="118" spans="1:23">
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117"/>
+      <c r="S117"/>
+      <c r="T117"/>
+      <c r="U117"/>
+      <c r="V117"/>
+      <c r="W117"/>
+      <c r="X117"/>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" s="5" t="s">
         <v>337</v>
       </c>
@@ -5167,8 +6779,22 @@
       <c r="E118" s="7" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="119" spans="1:23">
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
+      <c r="R118"/>
+      <c r="S118"/>
+      <c r="T118"/>
+      <c r="U118"/>
+      <c r="V118"/>
+      <c r="W118"/>
+      <c r="X118"/>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119" s="5" t="s">
         <v>339</v>
       </c>
@@ -5187,8 +6813,22 @@
       <c r="F119" s="7" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="120" spans="1:23">
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119"/>
+      <c r="T119"/>
+      <c r="U119"/>
+      <c r="V119"/>
+      <c r="W119"/>
+      <c r="X119"/>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" s="5" t="s">
         <v>344</v>
       </c>
@@ -5207,8 +6847,22 @@
       <c r="F120" s="7" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="121" spans="1:23">
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
+      <c r="S120"/>
+      <c r="T120"/>
+      <c r="U120"/>
+      <c r="V120"/>
+      <c r="W120"/>
+      <c r="X120"/>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121" s="5" t="s">
         <v>349</v>
       </c>
@@ -5230,8 +6884,22 @@
       <c r="G121" s="7" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="122" spans="1:23">
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
+      <c r="R121"/>
+      <c r="S121"/>
+      <c r="T121"/>
+      <c r="U121"/>
+      <c r="V121"/>
+      <c r="W121"/>
+      <c r="X121"/>
+    </row>
+    <row r="122" spans="1:24">
       <c r="A122" s="5" t="s">
         <v>351</v>
       </c>
@@ -5247,8 +6915,22 @@
       <c r="E122" s="7" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+      <c r="Q122"/>
+      <c r="R122"/>
+      <c r="S122"/>
+      <c r="T122"/>
+      <c r="U122"/>
+      <c r="V122"/>
+      <c r="W122"/>
+      <c r="X122"/>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" s="5" t="s">
         <v>353</v>
       </c>
@@ -5267,8 +6949,22 @@
       <c r="F123" s="7" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="124" spans="1:23">
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+      <c r="Q123"/>
+      <c r="R123"/>
+      <c r="S123"/>
+      <c r="T123"/>
+      <c r="U123"/>
+      <c r="V123"/>
+      <c r="W123"/>
+      <c r="X123"/>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124" s="5" t="s">
         <v>356</v>
       </c>
@@ -5287,8 +6983,22 @@
       <c r="F124" s="7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="125" spans="1:23">
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124"/>
+      <c r="R124"/>
+      <c r="S124"/>
+      <c r="T124"/>
+      <c r="U124"/>
+      <c r="V124"/>
+      <c r="W124"/>
+      <c r="X124"/>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" s="5" t="s">
         <v>357</v>
       </c>
@@ -5304,8 +7014,22 @@
       <c r="E125" s="7" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="126" spans="1:23">
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
+      <c r="R125"/>
+      <c r="S125"/>
+      <c r="T125"/>
+      <c r="U125"/>
+      <c r="V125"/>
+      <c r="W125"/>
+      <c r="X125"/>
+    </row>
+    <row r="126" spans="1:24">
       <c r="A126" s="5" t="s">
         <v>359</v>
       </c>
@@ -5321,8 +7045,22 @@
       <c r="E126" s="7" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="127" spans="1:23">
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126"/>
+      <c r="S126"/>
+      <c r="T126"/>
+      <c r="U126"/>
+      <c r="V126"/>
+      <c r="W126"/>
+      <c r="X126"/>
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127" s="5" t="s">
         <v>360</v>
       </c>
@@ -5341,8 +7079,22 @@
       <c r="F127" s="7" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="128" spans="1:23">
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+      <c r="Q127"/>
+      <c r="R127"/>
+      <c r="S127"/>
+      <c r="T127"/>
+      <c r="U127"/>
+      <c r="V127"/>
+      <c r="W127"/>
+      <c r="X127"/>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" s="14" t="s">
         <v>362</v>
       </c>
@@ -5363,21 +7115,22 @@
       <c r="H128" s="16"/>
       <c r="I128" s="16"/>
       <c r="J128" s="16"/>
-      <c r="K128" s="16"/>
-      <c r="L128" s="16"/>
-      <c r="M128" s="16"/>
-      <c r="N128" s="16"/>
-      <c r="O128" s="16"/>
-      <c r="P128" s="16"/>
-      <c r="Q128" s="16"/>
-      <c r="R128" s="16"/>
-      <c r="S128" s="16"/>
-      <c r="T128" s="16"/>
-      <c r="U128" s="16"/>
-      <c r="V128" s="16"/>
-      <c r="W128" s="16"/>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
+      <c r="R128"/>
+      <c r="S128"/>
+      <c r="T128"/>
+      <c r="U128"/>
+      <c r="V128"/>
+      <c r="W128"/>
+      <c r="X128"/>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129" s="5" t="s">
         <v>366</v>
       </c>
@@ -5393,8 +7146,22 @@
       <c r="E129" s="7" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
+      <c r="R129"/>
+      <c r="S129"/>
+      <c r="T129"/>
+      <c r="U129"/>
+      <c r="V129"/>
+      <c r="W129"/>
+      <c r="X129"/>
+    </row>
+    <row r="130" spans="1:24">
       <c r="A130" s="5" t="s">
         <v>369</v>
       </c>
@@ -5410,8 +7177,22 @@
       <c r="E130" s="7" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+      <c r="Q130"/>
+      <c r="R130"/>
+      <c r="S130"/>
+      <c r="T130"/>
+      <c r="U130"/>
+      <c r="V130"/>
+      <c r="W130"/>
+      <c r="X130"/>
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131" s="5" t="s">
         <v>373</v>
       </c>
@@ -5430,8 +7211,22 @@
       <c r="F131" s="7" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+      <c r="Q131"/>
+      <c r="R131"/>
+      <c r="S131"/>
+      <c r="T131"/>
+      <c r="U131"/>
+      <c r="V131"/>
+      <c r="W131"/>
+      <c r="X131"/>
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132" s="5" t="s">
         <v>378</v>
       </c>
@@ -5453,8 +7248,22 @@
       <c r="G132" s="7" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+      <c r="Q132"/>
+      <c r="R132"/>
+      <c r="S132"/>
+      <c r="T132"/>
+      <c r="U132"/>
+      <c r="V132"/>
+      <c r="W132"/>
+      <c r="X132"/>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133" s="5" t="s">
         <v>380</v>
       </c>
@@ -5473,8 +7282,22 @@
       <c r="F133" s="7" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
+      <c r="R133"/>
+      <c r="S133"/>
+      <c r="T133"/>
+      <c r="U133"/>
+      <c r="V133"/>
+      <c r="W133"/>
+      <c r="X133"/>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134" s="5" t="s">
         <v>385</v>
       </c>
@@ -5487,8 +7310,22 @@
       <c r="D134" s="7" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134"/>
+      <c r="S134"/>
+      <c r="T134"/>
+      <c r="U134"/>
+      <c r="V134"/>
+      <c r="W134"/>
+      <c r="X134"/>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" s="5" t="s">
         <v>386</v>
       </c>
@@ -5504,8 +7341,22 @@
       <c r="E135" s="7" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135"/>
+      <c r="U135"/>
+      <c r="V135"/>
+      <c r="W135"/>
+      <c r="X135"/>
+    </row>
+    <row r="136" spans="1:24">
       <c r="A136" s="5" t="s">
         <v>388</v>
       </c>
@@ -5521,8 +7372,22 @@
       <c r="E136" s="7" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136"/>
+      <c r="T136"/>
+      <c r="U136"/>
+      <c r="V136"/>
+      <c r="W136"/>
+      <c r="X136"/>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137" s="5" t="s">
         <v>392</v>
       </c>
@@ -5538,8 +7403,22 @@
       <c r="E137" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+      <c r="V137"/>
+      <c r="W137"/>
+      <c r="X137"/>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138" s="5" t="s">
         <v>393</v>
       </c>
@@ -5552,8 +7431,22 @@
       <c r="D138" s="7" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
+      <c r="V138"/>
+      <c r="W138"/>
+      <c r="X138"/>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139" s="5" t="s">
         <v>396</v>
       </c>
@@ -5575,8 +7468,22 @@
       <c r="G139" s="7" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139"/>
+      <c r="S139"/>
+      <c r="T139"/>
+      <c r="U139"/>
+      <c r="V139"/>
+      <c r="W139"/>
+      <c r="X139"/>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" s="5" t="s">
         <v>399</v>
       </c>
@@ -5598,8 +7505,22 @@
       <c r="G140" s="7" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140"/>
+      <c r="R140"/>
+      <c r="S140"/>
+      <c r="T140"/>
+      <c r="U140"/>
+      <c r="V140"/>
+      <c r="W140"/>
+      <c r="X140"/>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141" s="5" t="s">
         <v>404</v>
       </c>
@@ -5621,8 +7542,22 @@
       <c r="G141" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
+      <c r="R141"/>
+      <c r="S141"/>
+      <c r="T141"/>
+      <c r="U141"/>
+      <c r="V141"/>
+      <c r="W141"/>
+      <c r="X141"/>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" s="5" t="s">
         <v>408</v>
       </c>
@@ -5641,8 +7576,22 @@
       <c r="F142" s="7" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142"/>
+      <c r="R142"/>
+      <c r="S142"/>
+      <c r="T142"/>
+      <c r="U142"/>
+      <c r="V142"/>
+      <c r="W142"/>
+      <c r="X142"/>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" s="5" t="s">
         <v>410</v>
       </c>
@@ -5661,8 +7610,22 @@
       <c r="F143" s="7" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143"/>
+      <c r="S143"/>
+      <c r="T143"/>
+      <c r="U143"/>
+      <c r="V143"/>
+      <c r="W143"/>
+      <c r="X143"/>
+    </row>
+    <row r="144" spans="1:24">
       <c r="A144" s="5" t="s">
         <v>411</v>
       </c>
@@ -5684,8 +7647,22 @@
       <c r="G144" s="7" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+      <c r="Q144"/>
+      <c r="R144"/>
+      <c r="S144"/>
+      <c r="T144"/>
+      <c r="U144"/>
+      <c r="V144"/>
+      <c r="W144"/>
+      <c r="X144"/>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145" s="5" t="s">
         <v>413</v>
       </c>
@@ -5704,8 +7681,22 @@
       <c r="F145" s="7" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
+      <c r="R145"/>
+      <c r="S145"/>
+      <c r="T145"/>
+      <c r="U145"/>
+      <c r="V145"/>
+      <c r="W145"/>
+      <c r="X145"/>
+    </row>
+    <row r="146" spans="1:24">
       <c r="A146" s="5" t="s">
         <v>417</v>
       </c>
@@ -5718,8 +7709,22 @@
       <c r="D146" s="7" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146"/>
+      <c r="R146"/>
+      <c r="S146"/>
+      <c r="T146"/>
+      <c r="U146"/>
+      <c r="V146"/>
+      <c r="W146"/>
+      <c r="X146"/>
+    </row>
+    <row r="147" spans="1:24">
       <c r="A147" s="5" t="s">
         <v>420</v>
       </c>
@@ -5735,8 +7740,22 @@
       <c r="E147" s="7" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147"/>
+      <c r="R147"/>
+      <c r="S147"/>
+      <c r="T147"/>
+      <c r="U147"/>
+      <c r="V147"/>
+      <c r="W147"/>
+      <c r="X147"/>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148" s="5" t="s">
         <v>421</v>
       </c>
@@ -5755,8 +7774,22 @@
       <c r="F148" s="7" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+      <c r="Q148"/>
+      <c r="R148"/>
+      <c r="S148"/>
+      <c r="T148"/>
+      <c r="U148"/>
+      <c r="V148"/>
+      <c r="W148"/>
+      <c r="X148"/>
+    </row>
+    <row r="149" spans="1:24">
       <c r="A149" s="5" t="s">
         <v>422</v>
       </c>
@@ -5778,8 +7811,22 @@
       <c r="G149" s="7" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149"/>
+      <c r="R149"/>
+      <c r="S149"/>
+      <c r="T149"/>
+      <c r="U149"/>
+      <c r="V149"/>
+      <c r="W149"/>
+      <c r="X149"/>
+    </row>
+    <row r="150" spans="1:24">
       <c r="A150" s="5" t="s">
         <v>426</v>
       </c>
@@ -5801,8 +7848,22 @@
       <c r="G150" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="K150"/>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150"/>
+      <c r="R150"/>
+      <c r="S150"/>
+      <c r="T150"/>
+      <c r="U150"/>
+      <c r="V150"/>
+      <c r="W150"/>
+      <c r="X150"/>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151" s="5" t="s">
         <v>429</v>
       </c>
@@ -5815,8 +7876,22 @@
       <c r="D151" s="7" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+      <c r="Q151"/>
+      <c r="R151"/>
+      <c r="S151"/>
+      <c r="T151"/>
+      <c r="U151"/>
+      <c r="V151"/>
+      <c r="W151"/>
+      <c r="X151"/>
+    </row>
+    <row r="152" spans="1:24">
       <c r="A152" s="5" t="s">
         <v>432</v>
       </c>
@@ -5829,8 +7904,22 @@
       <c r="D152" s="7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152"/>
+      <c r="R152"/>
+      <c r="S152"/>
+      <c r="T152"/>
+      <c r="U152"/>
+      <c r="V152"/>
+      <c r="W152"/>
+      <c r="X152"/>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" s="5" t="s">
         <v>433</v>
       </c>
@@ -5846,8 +7935,22 @@
       <c r="E153" s="7" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153"/>
+      <c r="Q153"/>
+      <c r="R153"/>
+      <c r="S153"/>
+      <c r="T153"/>
+      <c r="U153"/>
+      <c r="V153"/>
+      <c r="W153"/>
+      <c r="X153"/>
+    </row>
+    <row r="154" spans="1:24">
       <c r="A154" s="5" t="s">
         <v>435</v>
       </c>
@@ -5860,8 +7963,22 @@
       <c r="D154" s="7" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+      <c r="Q154"/>
+      <c r="R154"/>
+      <c r="S154"/>
+      <c r="T154"/>
+      <c r="U154"/>
+      <c r="V154"/>
+      <c r="W154"/>
+      <c r="X154"/>
+    </row>
+    <row r="155" spans="1:24">
       <c r="A155" s="5" t="s">
         <v>438</v>
       </c>
@@ -5877,8 +7994,22 @@
       <c r="E155" s="7" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+      <c r="Q155"/>
+      <c r="R155"/>
+      <c r="S155"/>
+      <c r="T155"/>
+      <c r="U155"/>
+      <c r="V155"/>
+      <c r="W155"/>
+      <c r="X155"/>
+    </row>
+    <row r="156" spans="1:24">
       <c r="A156" s="5" t="s">
         <v>440</v>
       </c>
@@ -5894,8 +8025,22 @@
       <c r="E156" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+      <c r="Q156"/>
+      <c r="R156"/>
+      <c r="S156"/>
+      <c r="T156"/>
+      <c r="U156"/>
+      <c r="V156"/>
+      <c r="W156"/>
+      <c r="X156"/>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157" s="5" t="s">
         <v>443</v>
       </c>
@@ -5911,8 +8056,22 @@
       <c r="E157" s="7" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157"/>
+      <c r="R157"/>
+      <c r="S157"/>
+      <c r="T157"/>
+      <c r="U157"/>
+      <c r="V157"/>
+      <c r="W157"/>
+      <c r="X157"/>
+    </row>
+    <row r="158" spans="1:24">
       <c r="A158" s="5" t="s">
         <v>446</v>
       </c>
@@ -5928,8 +8087,22 @@
       <c r="E158" s="7" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="K158"/>
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158"/>
+      <c r="Q158"/>
+      <c r="R158"/>
+      <c r="S158"/>
+      <c r="T158"/>
+      <c r="U158"/>
+      <c r="V158"/>
+      <c r="W158"/>
+      <c r="X158"/>
+    </row>
+    <row r="159" spans="1:24">
       <c r="A159" s="5" t="s">
         <v>447</v>
       </c>
@@ -5948,8 +8121,22 @@
       <c r="F159" s="7" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="K159"/>
+      <c r="L159"/>
+      <c r="M159"/>
+      <c r="N159"/>
+      <c r="O159"/>
+      <c r="P159"/>
+      <c r="Q159"/>
+      <c r="R159"/>
+      <c r="S159"/>
+      <c r="T159"/>
+      <c r="U159"/>
+      <c r="V159"/>
+      <c r="W159"/>
+      <c r="X159"/>
+    </row>
+    <row r="160" spans="1:24">
       <c r="A160" s="5" t="s">
         <v>450</v>
       </c>
@@ -5965,8 +8152,22 @@
       <c r="E160" s="7" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="K160"/>
+      <c r="L160"/>
+      <c r="M160"/>
+      <c r="N160"/>
+      <c r="O160"/>
+      <c r="P160"/>
+      <c r="Q160"/>
+      <c r="R160"/>
+      <c r="S160"/>
+      <c r="T160"/>
+      <c r="U160"/>
+      <c r="V160"/>
+      <c r="W160"/>
+      <c r="X160"/>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" s="5" t="s">
         <v>453</v>
       </c>
@@ -5985,8 +8186,22 @@
       <c r="F161" s="7" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="K161"/>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+      <c r="Q161"/>
+      <c r="R161"/>
+      <c r="S161"/>
+      <c r="T161"/>
+      <c r="U161"/>
+      <c r="V161"/>
+      <c r="W161"/>
+      <c r="X161"/>
+    </row>
+    <row r="162" spans="1:24">
       <c r="A162" s="5" t="s">
         <v>457</v>
       </c>
@@ -6005,8 +8220,22 @@
       <c r="F162" s="7" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="K162"/>
+      <c r="L162"/>
+      <c r="M162"/>
+      <c r="N162"/>
+      <c r="O162"/>
+      <c r="P162"/>
+      <c r="Q162"/>
+      <c r="R162"/>
+      <c r="S162"/>
+      <c r="T162"/>
+      <c r="U162"/>
+      <c r="V162"/>
+      <c r="W162"/>
+      <c r="X162"/>
+    </row>
+    <row r="163" spans="1:24">
       <c r="A163" s="5" t="s">
         <v>462</v>
       </c>
@@ -6022,8 +8251,22 @@
       <c r="E163" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="K163"/>
+      <c r="L163"/>
+      <c r="M163"/>
+      <c r="N163"/>
+      <c r="O163"/>
+      <c r="P163"/>
+      <c r="Q163"/>
+      <c r="R163"/>
+      <c r="S163"/>
+      <c r="T163"/>
+      <c r="U163"/>
+      <c r="V163"/>
+      <c r="W163"/>
+      <c r="X163"/>
+    </row>
+    <row r="164" spans="1:24">
       <c r="A164" s="5" t="s">
         <v>464</v>
       </c>
@@ -6036,8 +8279,22 @@
       <c r="D164" s="7" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="K164"/>
+      <c r="L164"/>
+      <c r="M164"/>
+      <c r="N164"/>
+      <c r="O164"/>
+      <c r="P164"/>
+      <c r="Q164"/>
+      <c r="R164"/>
+      <c r="S164"/>
+      <c r="T164"/>
+      <c r="U164"/>
+      <c r="V164"/>
+      <c r="W164"/>
+      <c r="X164"/>
+    </row>
+    <row r="165" spans="1:24">
       <c r="A165" s="5" t="s">
         <v>467</v>
       </c>
@@ -6050,8 +8307,22 @@
       <c r="D165" s="7" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="K165"/>
+      <c r="L165"/>
+      <c r="M165"/>
+      <c r="N165"/>
+      <c r="O165"/>
+      <c r="P165"/>
+      <c r="Q165"/>
+      <c r="R165"/>
+      <c r="S165"/>
+      <c r="T165"/>
+      <c r="U165"/>
+      <c r="V165"/>
+      <c r="W165"/>
+      <c r="X165"/>
+    </row>
+    <row r="166" spans="1:24">
       <c r="A166" s="5" t="s">
         <v>468</v>
       </c>
@@ -6073,8 +8344,22 @@
       <c r="G166" s="7" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="K166"/>
+      <c r="L166"/>
+      <c r="M166"/>
+      <c r="N166"/>
+      <c r="O166"/>
+      <c r="P166"/>
+      <c r="Q166"/>
+      <c r="R166"/>
+      <c r="S166"/>
+      <c r="T166"/>
+      <c r="U166"/>
+      <c r="V166"/>
+      <c r="W166"/>
+      <c r="X166"/>
+    </row>
+    <row r="167" spans="1:24">
       <c r="A167" s="5" t="s">
         <v>473</v>
       </c>
@@ -6090,8 +8375,22 @@
       <c r="E167" s="7" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="K167"/>
+      <c r="L167"/>
+      <c r="M167"/>
+      <c r="N167"/>
+      <c r="O167"/>
+      <c r="P167"/>
+      <c r="Q167"/>
+      <c r="R167"/>
+      <c r="S167"/>
+      <c r="T167"/>
+      <c r="U167"/>
+      <c r="V167"/>
+      <c r="W167"/>
+      <c r="X167"/>
+    </row>
+    <row r="168" spans="1:24">
       <c r="A168" s="5" t="s">
         <v>475</v>
       </c>
@@ -6107,8 +8406,22 @@
       <c r="E168" s="7" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="K168"/>
+      <c r="L168"/>
+      <c r="M168"/>
+      <c r="N168"/>
+      <c r="O168"/>
+      <c r="P168"/>
+      <c r="Q168"/>
+      <c r="R168"/>
+      <c r="S168"/>
+      <c r="T168"/>
+      <c r="U168"/>
+      <c r="V168"/>
+      <c r="W168"/>
+      <c r="X168"/>
+    </row>
+    <row r="169" spans="1:24">
       <c r="A169" s="5" t="s">
         <v>476</v>
       </c>
@@ -6124,8 +8437,22 @@
       <c r="E169" s="7" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="K169"/>
+      <c r="L169"/>
+      <c r="M169"/>
+      <c r="N169"/>
+      <c r="O169"/>
+      <c r="P169"/>
+      <c r="Q169"/>
+      <c r="R169"/>
+      <c r="S169"/>
+      <c r="T169"/>
+      <c r="U169"/>
+      <c r="V169"/>
+      <c r="W169"/>
+      <c r="X169"/>
+    </row>
+    <row r="170" spans="1:24">
       <c r="A170" s="5" t="s">
         <v>478</v>
       </c>
@@ -6141,8 +8468,22 @@
       <c r="E170" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="K170"/>
+      <c r="L170"/>
+      <c r="M170"/>
+      <c r="N170"/>
+      <c r="O170"/>
+      <c r="P170"/>
+      <c r="Q170"/>
+      <c r="R170"/>
+      <c r="S170"/>
+      <c r="T170"/>
+      <c r="U170"/>
+      <c r="V170"/>
+      <c r="W170"/>
+      <c r="X170"/>
+    </row>
+    <row r="171" spans="1:24">
       <c r="A171" s="5" t="s">
         <v>481</v>
       </c>
@@ -6158,8 +8499,22 @@
       <c r="E171" s="7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="K171"/>
+      <c r="L171"/>
+      <c r="M171"/>
+      <c r="N171"/>
+      <c r="O171"/>
+      <c r="P171"/>
+      <c r="Q171"/>
+      <c r="R171"/>
+      <c r="S171"/>
+      <c r="T171"/>
+      <c r="U171"/>
+      <c r="V171"/>
+      <c r="W171"/>
+      <c r="X171"/>
+    </row>
+    <row r="172" spans="1:24">
       <c r="A172" s="5" t="s">
         <v>482</v>
       </c>
@@ -6175,8 +8530,22 @@
       <c r="E172" s="7" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="K172"/>
+      <c r="L172"/>
+      <c r="M172"/>
+      <c r="N172"/>
+      <c r="O172"/>
+      <c r="P172"/>
+      <c r="Q172"/>
+      <c r="R172"/>
+      <c r="S172"/>
+      <c r="T172"/>
+      <c r="U172"/>
+      <c r="V172"/>
+      <c r="W172"/>
+      <c r="X172"/>
+    </row>
+    <row r="173" spans="1:24">
       <c r="A173" s="5" t="s">
         <v>486</v>
       </c>
@@ -6192,8 +8561,22 @@
       <c r="E173" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="K173"/>
+      <c r="L173"/>
+      <c r="M173"/>
+      <c r="N173"/>
+      <c r="O173"/>
+      <c r="P173"/>
+      <c r="Q173"/>
+      <c r="R173"/>
+      <c r="S173"/>
+      <c r="T173"/>
+      <c r="U173"/>
+      <c r="V173"/>
+      <c r="W173"/>
+      <c r="X173"/>
+    </row>
+    <row r="174" spans="1:24">
       <c r="A174" s="5" t="s">
         <v>489</v>
       </c>
@@ -6209,8 +8592,22 @@
       <c r="E174" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="K174"/>
+      <c r="L174"/>
+      <c r="M174"/>
+      <c r="N174"/>
+      <c r="O174"/>
+      <c r="P174"/>
+      <c r="Q174"/>
+      <c r="R174"/>
+      <c r="S174"/>
+      <c r="T174"/>
+      <c r="U174"/>
+      <c r="V174"/>
+      <c r="W174"/>
+      <c r="X174"/>
+    </row>
+    <row r="175" spans="1:24">
       <c r="A175" s="5" t="s">
         <v>492</v>
       </c>
@@ -6223,8 +8620,22 @@
       <c r="D175" s="7" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="K175"/>
+      <c r="L175"/>
+      <c r="M175"/>
+      <c r="N175"/>
+      <c r="O175"/>
+      <c r="P175"/>
+      <c r="Q175"/>
+      <c r="R175"/>
+      <c r="S175"/>
+      <c r="T175"/>
+      <c r="U175"/>
+      <c r="V175"/>
+      <c r="W175"/>
+      <c r="X175"/>
+    </row>
+    <row r="176" spans="1:24">
       <c r="A176" s="5" t="s">
         <v>495</v>
       </c>
@@ -6240,8 +8651,22 @@
       <c r="E176" s="7" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="177" spans="1:23">
+      <c r="K176"/>
+      <c r="L176"/>
+      <c r="M176"/>
+      <c r="N176"/>
+      <c r="O176"/>
+      <c r="P176"/>
+      <c r="Q176"/>
+      <c r="R176"/>
+      <c r="S176"/>
+      <c r="T176"/>
+      <c r="U176"/>
+      <c r="V176"/>
+      <c r="W176"/>
+      <c r="X176"/>
+    </row>
+    <row r="177" spans="1:24">
       <c r="A177" s="5" t="s">
         <v>498</v>
       </c>
@@ -6257,8 +8682,22 @@
       <c r="E177" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="178" spans="1:23">
+      <c r="K177"/>
+      <c r="L177"/>
+      <c r="M177"/>
+      <c r="N177"/>
+      <c r="O177"/>
+      <c r="P177"/>
+      <c r="Q177"/>
+      <c r="R177"/>
+      <c r="S177"/>
+      <c r="T177"/>
+      <c r="U177"/>
+      <c r="V177"/>
+      <c r="W177"/>
+      <c r="X177"/>
+    </row>
+    <row r="178" spans="1:24">
       <c r="A178" s="5" t="s">
         <v>499</v>
       </c>
@@ -6271,8 +8710,22 @@
       <c r="D178" s="7" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="179" spans="1:23">
+      <c r="K178"/>
+      <c r="L178"/>
+      <c r="M178"/>
+      <c r="N178"/>
+      <c r="O178"/>
+      <c r="P178"/>
+      <c r="Q178"/>
+      <c r="R178"/>
+      <c r="S178"/>
+      <c r="T178"/>
+      <c r="U178"/>
+      <c r="V178"/>
+      <c r="W178"/>
+      <c r="X178"/>
+    </row>
+    <row r="179" spans="1:24">
       <c r="A179" s="5" t="s">
         <v>502</v>
       </c>
@@ -6288,8 +8741,22 @@
       <c r="E179" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="180" spans="1:23">
+      <c r="K179"/>
+      <c r="L179"/>
+      <c r="M179"/>
+      <c r="N179"/>
+      <c r="O179"/>
+      <c r="P179"/>
+      <c r="Q179"/>
+      <c r="R179"/>
+      <c r="S179"/>
+      <c r="T179"/>
+      <c r="U179"/>
+      <c r="V179"/>
+      <c r="W179"/>
+      <c r="X179"/>
+    </row>
+    <row r="180" spans="1:24">
       <c r="A180" s="5" t="s">
         <v>505</v>
       </c>
@@ -6305,8 +8772,22 @@
       <c r="E180" s="7" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="181" spans="1:23">
+      <c r="K180"/>
+      <c r="L180"/>
+      <c r="M180"/>
+      <c r="N180"/>
+      <c r="O180"/>
+      <c r="P180"/>
+      <c r="Q180"/>
+      <c r="R180"/>
+      <c r="S180"/>
+      <c r="T180"/>
+      <c r="U180"/>
+      <c r="V180"/>
+      <c r="W180"/>
+      <c r="X180"/>
+    </row>
+    <row r="181" spans="1:24">
       <c r="A181" s="5" t="s">
         <v>507</v>
       </c>
@@ -6325,8 +8806,22 @@
       <c r="F181" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="182" spans="1:23">
+      <c r="K181"/>
+      <c r="L181"/>
+      <c r="M181"/>
+      <c r="N181"/>
+      <c r="O181"/>
+      <c r="P181"/>
+      <c r="Q181"/>
+      <c r="R181"/>
+      <c r="S181"/>
+      <c r="T181"/>
+      <c r="U181"/>
+      <c r="V181"/>
+      <c r="W181"/>
+      <c r="X181"/>
+    </row>
+    <row r="182" spans="1:24">
       <c r="A182" s="5" t="s">
         <v>512</v>
       </c>
@@ -6342,8 +8837,22 @@
       <c r="E182" s="7" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="183" spans="1:23">
+      <c r="K182"/>
+      <c r="L182"/>
+      <c r="M182"/>
+      <c r="N182"/>
+      <c r="O182"/>
+      <c r="P182"/>
+      <c r="Q182"/>
+      <c r="R182"/>
+      <c r="S182"/>
+      <c r="T182"/>
+      <c r="U182"/>
+      <c r="V182"/>
+      <c r="W182"/>
+      <c r="X182"/>
+    </row>
+    <row r="183" spans="1:24">
       <c r="A183" s="5" t="s">
         <v>516</v>
       </c>
@@ -6359,8 +8868,22 @@
       <c r="E183" s="7" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="184" spans="1:23">
+      <c r="K183"/>
+      <c r="L183"/>
+      <c r="M183"/>
+      <c r="N183"/>
+      <c r="O183"/>
+      <c r="P183"/>
+      <c r="Q183"/>
+      <c r="R183"/>
+      <c r="S183"/>
+      <c r="T183"/>
+      <c r="U183"/>
+      <c r="V183"/>
+      <c r="W183"/>
+      <c r="X183"/>
+    </row>
+    <row r="184" spans="1:24">
       <c r="A184" s="5" t="s">
         <v>520</v>
       </c>
@@ -6373,8 +8896,22 @@
       <c r="D184" s="7" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="185" spans="1:23">
+      <c r="K184"/>
+      <c r="L184"/>
+      <c r="M184"/>
+      <c r="N184"/>
+      <c r="O184"/>
+      <c r="P184"/>
+      <c r="Q184"/>
+      <c r="R184"/>
+      <c r="S184"/>
+      <c r="T184"/>
+      <c r="U184"/>
+      <c r="V184"/>
+      <c r="W184"/>
+      <c r="X184"/>
+    </row>
+    <row r="185" spans="1:24">
       <c r="A185" s="5" t="s">
         <v>523</v>
       </c>
@@ -6387,8 +8924,22 @@
       <c r="D185" s="7" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="186" spans="1:23">
+      <c r="K185"/>
+      <c r="L185"/>
+      <c r="M185"/>
+      <c r="N185"/>
+      <c r="O185"/>
+      <c r="P185"/>
+      <c r="Q185"/>
+      <c r="R185"/>
+      <c r="S185"/>
+      <c r="T185"/>
+      <c r="U185"/>
+      <c r="V185"/>
+      <c r="W185"/>
+      <c r="X185"/>
+    </row>
+    <row r="186" spans="1:24">
       <c r="A186" s="5" t="s">
         <v>524</v>
       </c>
@@ -6404,8 +8955,22 @@
       <c r="E186" s="7" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="187" spans="1:23">
+      <c r="K186"/>
+      <c r="L186"/>
+      <c r="M186"/>
+      <c r="N186"/>
+      <c r="O186"/>
+      <c r="P186"/>
+      <c r="Q186"/>
+      <c r="R186"/>
+      <c r="S186"/>
+      <c r="T186"/>
+      <c r="U186"/>
+      <c r="V186"/>
+      <c r="W186"/>
+      <c r="X186"/>
+    </row>
+    <row r="187" spans="1:24">
       <c r="A187" s="5" t="s">
         <v>527</v>
       </c>
@@ -6421,8 +8986,22 @@
       <c r="E187" s="7" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="188" spans="1:23">
+      <c r="K187"/>
+      <c r="L187"/>
+      <c r="M187"/>
+      <c r="N187"/>
+      <c r="O187"/>
+      <c r="P187"/>
+      <c r="Q187"/>
+      <c r="R187"/>
+      <c r="S187"/>
+      <c r="T187"/>
+      <c r="U187"/>
+      <c r="V187"/>
+      <c r="W187"/>
+      <c r="X187"/>
+    </row>
+    <row r="188" spans="1:24">
       <c r="A188" s="5" t="s">
         <v>531</v>
       </c>
@@ -6438,8 +9017,22 @@
       <c r="E188" s="7" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="189" spans="1:23">
+      <c r="K188"/>
+      <c r="L188"/>
+      <c r="M188"/>
+      <c r="N188"/>
+      <c r="O188"/>
+      <c r="P188"/>
+      <c r="Q188"/>
+      <c r="R188"/>
+      <c r="S188"/>
+      <c r="T188"/>
+      <c r="U188"/>
+      <c r="V188"/>
+      <c r="W188"/>
+      <c r="X188"/>
+    </row>
+    <row r="189" spans="1:24">
       <c r="A189" s="5" t="s">
         <v>534</v>
       </c>
@@ -6455,8 +9048,22 @@
       <c r="E189" s="7" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="190" spans="1:23">
+      <c r="K189"/>
+      <c r="L189"/>
+      <c r="M189"/>
+      <c r="N189"/>
+      <c r="O189"/>
+      <c r="P189"/>
+      <c r="Q189"/>
+      <c r="R189"/>
+      <c r="S189"/>
+      <c r="T189"/>
+      <c r="U189"/>
+      <c r="V189"/>
+      <c r="W189"/>
+      <c r="X189"/>
+    </row>
+    <row r="190" spans="1:24">
       <c r="A190" s="5" t="s">
         <v>536</v>
       </c>
@@ -6469,8 +9076,22 @@
       <c r="D190" s="7" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="191" spans="1:23">
+      <c r="K190"/>
+      <c r="L190"/>
+      <c r="M190"/>
+      <c r="N190"/>
+      <c r="O190"/>
+      <c r="P190"/>
+      <c r="Q190"/>
+      <c r="R190"/>
+      <c r="S190"/>
+      <c r="T190"/>
+      <c r="U190"/>
+      <c r="V190"/>
+      <c r="W190"/>
+      <c r="X190"/>
+    </row>
+    <row r="191" spans="1:24">
       <c r="A191" s="5" t="s">
         <v>537</v>
       </c>
@@ -6489,8 +9110,22 @@
       <c r="F191" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="192" spans="1:23">
+      <c r="K191"/>
+      <c r="L191"/>
+      <c r="M191"/>
+      <c r="N191"/>
+      <c r="O191"/>
+      <c r="P191"/>
+      <c r="Q191"/>
+      <c r="R191"/>
+      <c r="S191"/>
+      <c r="T191"/>
+      <c r="U191"/>
+      <c r="V191"/>
+      <c r="W191"/>
+      <c r="X191"/>
+    </row>
+    <row r="192" spans="1:24">
       <c r="A192" s="9" t="s">
         <v>539</v>
       </c>
@@ -6511,21 +9146,22 @@
       <c r="H192" s="11"/>
       <c r="I192" s="11"/>
       <c r="J192" s="11"/>
-      <c r="K192" s="11"/>
-      <c r="L192" s="11"/>
-      <c r="M192" s="11"/>
-      <c r="N192" s="11"/>
-      <c r="O192" s="11"/>
-      <c r="P192" s="11"/>
-      <c r="Q192" s="11"/>
-      <c r="R192" s="11"/>
-      <c r="S192" s="11"/>
-      <c r="T192" s="11"/>
-      <c r="U192" s="11"/>
-      <c r="V192" s="11"/>
-      <c r="W192" s="11"/>
-    </row>
-    <row r="193" spans="1:6">
+      <c r="K192"/>
+      <c r="L192"/>
+      <c r="M192"/>
+      <c r="N192"/>
+      <c r="O192"/>
+      <c r="P192"/>
+      <c r="Q192"/>
+      <c r="R192"/>
+      <c r="S192"/>
+      <c r="T192"/>
+      <c r="U192"/>
+      <c r="V192"/>
+      <c r="W192"/>
+      <c r="X192"/>
+    </row>
+    <row r="193" spans="1:24">
       <c r="A193" s="5" t="s">
         <v>543</v>
       </c>
@@ -6541,8 +9177,22 @@
       <c r="E193" s="7" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="194" spans="1:6">
+      <c r="K193"/>
+      <c r="L193"/>
+      <c r="M193"/>
+      <c r="N193"/>
+      <c r="O193"/>
+      <c r="P193"/>
+      <c r="Q193"/>
+      <c r="R193"/>
+      <c r="S193"/>
+      <c r="T193"/>
+      <c r="U193"/>
+      <c r="V193"/>
+      <c r="W193"/>
+      <c r="X193"/>
+    </row>
+    <row r="194" spans="1:24">
       <c r="A194" s="5" t="s">
         <v>545</v>
       </c>
@@ -6561,8 +9211,22 @@
       <c r="F194" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="195" spans="1:6">
+      <c r="K194"/>
+      <c r="L194"/>
+      <c r="M194"/>
+      <c r="N194"/>
+      <c r="O194"/>
+      <c r="P194"/>
+      <c r="Q194"/>
+      <c r="R194"/>
+      <c r="S194"/>
+      <c r="T194"/>
+      <c r="U194"/>
+      <c r="V194"/>
+      <c r="W194"/>
+      <c r="X194"/>
+    </row>
+    <row r="195" spans="1:24">
       <c r="A195" s="5" t="s">
         <v>549</v>
       </c>
@@ -6575,8 +9239,22 @@
       <c r="D195" s="7" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="196" spans="1:6">
+      <c r="K195"/>
+      <c r="L195"/>
+      <c r="M195"/>
+      <c r="N195"/>
+      <c r="O195"/>
+      <c r="P195"/>
+      <c r="Q195"/>
+      <c r="R195"/>
+      <c r="S195"/>
+      <c r="T195"/>
+      <c r="U195"/>
+      <c r="V195"/>
+      <c r="W195"/>
+      <c r="X195"/>
+    </row>
+    <row r="196" spans="1:24">
       <c r="A196" s="5" t="s">
         <v>552</v>
       </c>
@@ -6589,8 +9267,22 @@
       <c r="D196" s="7" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="197" spans="1:6">
+      <c r="K196"/>
+      <c r="L196"/>
+      <c r="M196"/>
+      <c r="N196"/>
+      <c r="O196"/>
+      <c r="P196"/>
+      <c r="Q196"/>
+      <c r="R196"/>
+      <c r="S196"/>
+      <c r="T196"/>
+      <c r="U196"/>
+      <c r="V196"/>
+      <c r="W196"/>
+      <c r="X196"/>
+    </row>
+    <row r="197" spans="1:24">
       <c r="A197" s="5" t="s">
         <v>555</v>
       </c>
@@ -6603,8 +9295,22 @@
       <c r="D197" s="7" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="198" spans="1:6">
+      <c r="K197"/>
+      <c r="L197"/>
+      <c r="M197"/>
+      <c r="N197"/>
+      <c r="O197"/>
+      <c r="P197"/>
+      <c r="Q197"/>
+      <c r="R197"/>
+      <c r="S197"/>
+      <c r="T197"/>
+      <c r="U197"/>
+      <c r="V197"/>
+      <c r="W197"/>
+      <c r="X197"/>
+    </row>
+    <row r="198" spans="1:24">
       <c r="A198" s="5" t="s">
         <v>558</v>
       </c>
@@ -6620,8 +9326,22 @@
       <c r="E198" s="7" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="K198"/>
+      <c r="L198"/>
+      <c r="M198"/>
+      <c r="N198"/>
+      <c r="O198"/>
+      <c r="P198"/>
+      <c r="Q198"/>
+      <c r="R198"/>
+      <c r="S198"/>
+      <c r="T198"/>
+      <c r="U198"/>
+      <c r="V198"/>
+      <c r="W198"/>
+      <c r="X198"/>
+    </row>
+    <row r="199" spans="1:24">
       <c r="A199" s="5" t="s">
         <v>559</v>
       </c>
@@ -6637,8 +9357,22 @@
       <c r="E199" s="7" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="K199"/>
+      <c r="L199"/>
+      <c r="M199"/>
+      <c r="N199"/>
+      <c r="O199"/>
+      <c r="P199"/>
+      <c r="Q199"/>
+      <c r="R199"/>
+      <c r="S199"/>
+      <c r="T199"/>
+      <c r="U199"/>
+      <c r="V199"/>
+      <c r="W199"/>
+      <c r="X199"/>
+    </row>
+    <row r="200" spans="1:24">
       <c r="A200" s="5" t="s">
         <v>563</v>
       </c>
@@ -6654,8 +9388,22 @@
       <c r="E200" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="K200"/>
+      <c r="L200"/>
+      <c r="M200"/>
+      <c r="N200"/>
+      <c r="O200"/>
+      <c r="P200"/>
+      <c r="Q200"/>
+      <c r="R200"/>
+      <c r="S200"/>
+      <c r="T200"/>
+      <c r="U200"/>
+      <c r="V200"/>
+      <c r="W200"/>
+      <c r="X200"/>
+    </row>
+    <row r="201" spans="1:24">
       <c r="A201" s="5" t="s">
         <v>564</v>
       </c>
@@ -6671,8 +9419,22 @@
       <c r="E201" s="7" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="202" spans="1:6">
+      <c r="K201"/>
+      <c r="L201"/>
+      <c r="M201"/>
+      <c r="N201"/>
+      <c r="O201"/>
+      <c r="P201"/>
+      <c r="Q201"/>
+      <c r="R201"/>
+      <c r="S201"/>
+      <c r="T201"/>
+      <c r="U201"/>
+      <c r="V201"/>
+      <c r="W201"/>
+      <c r="X201"/>
+    </row>
+    <row r="202" spans="1:24">
       <c r="A202" s="5" t="s">
         <v>567</v>
       </c>
@@ -6685,8 +9447,22 @@
       <c r="D202" s="7" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="K202"/>
+      <c r="L202"/>
+      <c r="M202"/>
+      <c r="N202"/>
+      <c r="O202"/>
+      <c r="P202"/>
+      <c r="Q202"/>
+      <c r="R202"/>
+      <c r="S202"/>
+      <c r="T202"/>
+      <c r="U202"/>
+      <c r="V202"/>
+      <c r="W202"/>
+      <c r="X202"/>
+    </row>
+    <row r="203" spans="1:24">
       <c r="A203" s="5" t="s">
         <v>569</v>
       </c>
@@ -6702,8 +9478,22 @@
       <c r="E203" s="7" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="K203"/>
+      <c r="L203"/>
+      <c r="M203"/>
+      <c r="N203"/>
+      <c r="O203"/>
+      <c r="P203"/>
+      <c r="Q203"/>
+      <c r="R203"/>
+      <c r="S203"/>
+      <c r="T203"/>
+      <c r="U203"/>
+      <c r="V203"/>
+      <c r="W203"/>
+      <c r="X203"/>
+    </row>
+    <row r="204" spans="1:24">
       <c r="A204" s="5" t="s">
         <v>573</v>
       </c>
@@ -6719,8 +9509,22 @@
       <c r="E204" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="K204"/>
+      <c r="L204"/>
+      <c r="M204"/>
+      <c r="N204"/>
+      <c r="O204"/>
+      <c r="P204"/>
+      <c r="Q204"/>
+      <c r="R204"/>
+      <c r="S204"/>
+      <c r="T204"/>
+      <c r="U204"/>
+      <c r="V204"/>
+      <c r="W204"/>
+      <c r="X204"/>
+    </row>
+    <row r="205" spans="1:24">
       <c r="A205" s="5" t="s">
         <v>576</v>
       </c>
@@ -6739,8 +9543,22 @@
       <c r="F205" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="206" spans="1:6">
+      <c r="K205"/>
+      <c r="L205"/>
+      <c r="M205"/>
+      <c r="N205"/>
+      <c r="O205"/>
+      <c r="P205"/>
+      <c r="Q205"/>
+      <c r="R205"/>
+      <c r="S205"/>
+      <c r="T205"/>
+      <c r="U205"/>
+      <c r="V205"/>
+      <c r="W205"/>
+      <c r="X205"/>
+    </row>
+    <row r="206" spans="1:24">
       <c r="A206" s="5" t="s">
         <v>579</v>
       </c>
@@ -6759,8 +9577,22 @@
       <c r="F206" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="K206"/>
+      <c r="L206"/>
+      <c r="M206"/>
+      <c r="N206"/>
+      <c r="O206"/>
+      <c r="P206"/>
+      <c r="Q206"/>
+      <c r="R206"/>
+      <c r="S206"/>
+      <c r="T206"/>
+      <c r="U206"/>
+      <c r="V206"/>
+      <c r="W206"/>
+      <c r="X206"/>
+    </row>
+    <row r="207" spans="1:24">
       <c r="A207" s="5" t="s">
         <v>581</v>
       </c>
@@ -6776,8 +9608,22 @@
       <c r="E207" s="7" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="K207"/>
+      <c r="L207"/>
+      <c r="M207"/>
+      <c r="N207"/>
+      <c r="O207"/>
+      <c r="P207"/>
+      <c r="Q207"/>
+      <c r="R207"/>
+      <c r="S207"/>
+      <c r="T207"/>
+      <c r="U207"/>
+      <c r="V207"/>
+      <c r="W207"/>
+      <c r="X207"/>
+    </row>
+    <row r="208" spans="1:24">
       <c r="A208" s="5" t="s">
         <v>584</v>
       </c>
@@ -6790,8 +9636,22 @@
       <c r="D208" s="7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="209" spans="1:6">
+      <c r="K208"/>
+      <c r="L208"/>
+      <c r="M208"/>
+      <c r="N208"/>
+      <c r="O208"/>
+      <c r="P208"/>
+      <c r="Q208"/>
+      <c r="R208"/>
+      <c r="S208"/>
+      <c r="T208"/>
+      <c r="U208"/>
+      <c r="V208"/>
+      <c r="W208"/>
+      <c r="X208"/>
+    </row>
+    <row r="209" spans="1:24">
       <c r="A209" s="5" t="s">
         <v>585</v>
       </c>
@@ -6807,8 +9667,22 @@
       <c r="E209" s="7" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="210" spans="1:6">
+      <c r="K209"/>
+      <c r="L209"/>
+      <c r="M209"/>
+      <c r="N209"/>
+      <c r="O209"/>
+      <c r="P209"/>
+      <c r="Q209"/>
+      <c r="R209"/>
+      <c r="S209"/>
+      <c r="T209"/>
+      <c r="U209"/>
+      <c r="V209"/>
+      <c r="W209"/>
+      <c r="X209"/>
+    </row>
+    <row r="210" spans="1:24">
       <c r="A210" s="5" t="s">
         <v>589</v>
       </c>
@@ -6824,8 +9698,22 @@
       <c r="E210" s="7" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="211" spans="1:6">
+      <c r="K210"/>
+      <c r="L210"/>
+      <c r="M210"/>
+      <c r="N210"/>
+      <c r="O210"/>
+      <c r="P210"/>
+      <c r="Q210"/>
+      <c r="R210"/>
+      <c r="S210"/>
+      <c r="T210"/>
+      <c r="U210"/>
+      <c r="V210"/>
+      <c r="W210"/>
+      <c r="X210"/>
+    </row>
+    <row r="211" spans="1:24">
       <c r="A211" s="5" t="s">
         <v>593</v>
       </c>
@@ -6841,8 +9729,22 @@
       <c r="E211" s="7" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="212" spans="1:6">
+      <c r="K211"/>
+      <c r="L211"/>
+      <c r="M211"/>
+      <c r="N211"/>
+      <c r="O211"/>
+      <c r="P211"/>
+      <c r="Q211"/>
+      <c r="R211"/>
+      <c r="S211"/>
+      <c r="T211"/>
+      <c r="U211"/>
+      <c r="V211"/>
+      <c r="W211"/>
+      <c r="X211"/>
+    </row>
+    <row r="212" spans="1:24">
       <c r="A212" s="5" t="s">
         <v>596</v>
       </c>
@@ -6855,8 +9757,22 @@
       <c r="D212" s="7" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="213" spans="1:6">
+      <c r="K212"/>
+      <c r="L212"/>
+      <c r="M212"/>
+      <c r="N212"/>
+      <c r="O212"/>
+      <c r="P212"/>
+      <c r="Q212"/>
+      <c r="R212"/>
+      <c r="S212"/>
+      <c r="T212"/>
+      <c r="U212"/>
+      <c r="V212"/>
+      <c r="W212"/>
+      <c r="X212"/>
+    </row>
+    <row r="213" spans="1:24">
       <c r="A213" s="5" t="s">
         <v>599</v>
       </c>
@@ -6872,8 +9788,22 @@
       <c r="E213" s="7" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="214" spans="1:6">
+      <c r="K213"/>
+      <c r="L213"/>
+      <c r="M213"/>
+      <c r="N213"/>
+      <c r="O213"/>
+      <c r="P213"/>
+      <c r="Q213"/>
+      <c r="R213"/>
+      <c r="S213"/>
+      <c r="T213"/>
+      <c r="U213"/>
+      <c r="V213"/>
+      <c r="W213"/>
+      <c r="X213"/>
+    </row>
+    <row r="214" spans="1:24">
       <c r="A214" s="5" t="s">
         <v>601</v>
       </c>
@@ -6892,8 +9822,22 @@
       <c r="F214" s="7" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="215" spans="1:6">
+      <c r="K214"/>
+      <c r="L214"/>
+      <c r="M214"/>
+      <c r="N214"/>
+      <c r="O214"/>
+      <c r="P214"/>
+      <c r="Q214"/>
+      <c r="R214"/>
+      <c r="S214"/>
+      <c r="T214"/>
+      <c r="U214"/>
+      <c r="V214"/>
+      <c r="W214"/>
+      <c r="X214"/>
+    </row>
+    <row r="215" spans="1:24">
       <c r="A215" s="5" t="s">
         <v>603</v>
       </c>
@@ -6906,8 +9850,22 @@
       <c r="D215" s="7" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="216" spans="1:6">
+      <c r="K215"/>
+      <c r="L215"/>
+      <c r="M215"/>
+      <c r="N215"/>
+      <c r="O215"/>
+      <c r="P215"/>
+      <c r="Q215"/>
+      <c r="R215"/>
+      <c r="S215"/>
+      <c r="T215"/>
+      <c r="U215"/>
+      <c r="V215"/>
+      <c r="W215"/>
+      <c r="X215"/>
+    </row>
+    <row r="216" spans="1:24">
       <c r="A216" s="5" t="s">
         <v>606</v>
       </c>
@@ -6923,8 +9881,22 @@
       <c r="E216" s="7" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="K216"/>
+      <c r="L216"/>
+      <c r="M216"/>
+      <c r="N216"/>
+      <c r="O216"/>
+      <c r="P216"/>
+      <c r="Q216"/>
+      <c r="R216"/>
+      <c r="S216"/>
+      <c r="T216"/>
+      <c r="U216"/>
+      <c r="V216"/>
+      <c r="W216"/>
+      <c r="X216"/>
+    </row>
+    <row r="217" spans="1:24">
       <c r="A217" s="5" t="s">
         <v>608</v>
       </c>
@@ -6940,8 +9912,22 @@
       <c r="E217" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="K217"/>
+      <c r="L217"/>
+      <c r="M217"/>
+      <c r="N217"/>
+      <c r="O217"/>
+      <c r="P217"/>
+      <c r="Q217"/>
+      <c r="R217"/>
+      <c r="S217"/>
+      <c r="T217"/>
+      <c r="U217"/>
+      <c r="V217"/>
+      <c r="W217"/>
+      <c r="X217"/>
+    </row>
+    <row r="218" spans="1:24">
       <c r="A218" s="5" t="s">
         <v>610</v>
       </c>
@@ -6954,8 +9940,22 @@
       <c r="D218" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="219" spans="1:6">
+      <c r="K218"/>
+      <c r="L218"/>
+      <c r="M218"/>
+      <c r="N218"/>
+      <c r="O218"/>
+      <c r="P218"/>
+      <c r="Q218"/>
+      <c r="R218"/>
+      <c r="S218"/>
+      <c r="T218"/>
+      <c r="U218"/>
+      <c r="V218"/>
+      <c r="W218"/>
+      <c r="X218"/>
+    </row>
+    <row r="219" spans="1:24">
       <c r="A219" s="5" t="s">
         <v>612</v>
       </c>
@@ -6968,8 +9968,22 @@
       <c r="D219" s="7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="220" spans="1:6">
+      <c r="K219"/>
+      <c r="L219"/>
+      <c r="M219"/>
+      <c r="N219"/>
+      <c r="O219"/>
+      <c r="P219"/>
+      <c r="Q219"/>
+      <c r="R219"/>
+      <c r="S219"/>
+      <c r="T219"/>
+      <c r="U219"/>
+      <c r="V219"/>
+      <c r="W219"/>
+      <c r="X219"/>
+    </row>
+    <row r="220" spans="1:24">
       <c r="A220" s="5" t="s">
         <v>613</v>
       </c>
@@ -6985,8 +9999,22 @@
       <c r="E220" s="7" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="221" spans="1:6">
+      <c r="K220"/>
+      <c r="L220"/>
+      <c r="M220"/>
+      <c r="N220"/>
+      <c r="O220"/>
+      <c r="P220"/>
+      <c r="Q220"/>
+      <c r="R220"/>
+      <c r="S220"/>
+      <c r="T220"/>
+      <c r="U220"/>
+      <c r="V220"/>
+      <c r="W220"/>
+      <c r="X220"/>
+    </row>
+    <row r="221" spans="1:24">
       <c r="A221" s="5" t="s">
         <v>615</v>
       </c>
@@ -7005,8 +10033,22 @@
       <c r="F221" s="7" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="222" spans="1:6">
+      <c r="K221"/>
+      <c r="L221"/>
+      <c r="M221"/>
+      <c r="N221"/>
+      <c r="O221"/>
+      <c r="P221"/>
+      <c r="Q221"/>
+      <c r="R221"/>
+      <c r="S221"/>
+      <c r="T221"/>
+      <c r="U221"/>
+      <c r="V221"/>
+      <c r="W221"/>
+      <c r="X221"/>
+    </row>
+    <row r="222" spans="1:24">
       <c r="A222" s="5" t="s">
         <v>617</v>
       </c>
@@ -7019,8 +10061,22 @@
       <c r="D222" s="7" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="223" spans="1:6">
+      <c r="K222"/>
+      <c r="L222"/>
+      <c r="M222"/>
+      <c r="N222"/>
+      <c r="O222"/>
+      <c r="P222"/>
+      <c r="Q222"/>
+      <c r="R222"/>
+      <c r="S222"/>
+      <c r="T222"/>
+      <c r="U222"/>
+      <c r="V222"/>
+      <c r="W222"/>
+      <c r="X222"/>
+    </row>
+    <row r="223" spans="1:24">
       <c r="A223" s="5" t="s">
         <v>618</v>
       </c>
@@ -7039,8 +10095,22 @@
       <c r="F223" s="7" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="224" spans="1:6">
+      <c r="K223"/>
+      <c r="L223"/>
+      <c r="M223"/>
+      <c r="N223"/>
+      <c r="O223"/>
+      <c r="P223"/>
+      <c r="Q223"/>
+      <c r="R223"/>
+      <c r="S223"/>
+      <c r="T223"/>
+      <c r="U223"/>
+      <c r="V223"/>
+      <c r="W223"/>
+      <c r="X223"/>
+    </row>
+    <row r="224" spans="1:24">
       <c r="A224" s="5" t="s">
         <v>621</v>
       </c>
@@ -7053,8 +10123,22 @@
       <c r="D224" s="7" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="K224"/>
+      <c r="L224"/>
+      <c r="M224"/>
+      <c r="N224"/>
+      <c r="O224"/>
+      <c r="P224"/>
+      <c r="Q224"/>
+      <c r="R224"/>
+      <c r="S224"/>
+      <c r="T224"/>
+      <c r="U224"/>
+      <c r="V224"/>
+      <c r="W224"/>
+      <c r="X224"/>
+    </row>
+    <row r="225" spans="1:24">
       <c r="A225" s="5" t="s">
         <v>624</v>
       </c>
@@ -7073,8 +10157,22 @@
       <c r="F225" s="7" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="K225"/>
+      <c r="L225"/>
+      <c r="M225"/>
+      <c r="N225"/>
+      <c r="O225"/>
+      <c r="P225"/>
+      <c r="Q225"/>
+      <c r="R225"/>
+      <c r="S225"/>
+      <c r="T225"/>
+      <c r="U225"/>
+      <c r="V225"/>
+      <c r="W225"/>
+      <c r="X225"/>
+    </row>
+    <row r="226" spans="1:24">
       <c r="A226" s="5" t="s">
         <v>628</v>
       </c>
@@ -7087,8 +10185,22 @@
       <c r="D226" s="7" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="K226"/>
+      <c r="L226"/>
+      <c r="M226"/>
+      <c r="N226"/>
+      <c r="O226"/>
+      <c r="P226"/>
+      <c r="Q226"/>
+      <c r="R226"/>
+      <c r="S226"/>
+      <c r="T226"/>
+      <c r="U226"/>
+      <c r="V226"/>
+      <c r="W226"/>
+      <c r="X226"/>
+    </row>
+    <row r="227" spans="1:24">
       <c r="A227" s="5" t="s">
         <v>630</v>
       </c>
@@ -7104,8 +10216,22 @@
       <c r="E227" s="7" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="228" spans="1:6">
+      <c r="K227"/>
+      <c r="L227"/>
+      <c r="M227"/>
+      <c r="N227"/>
+      <c r="O227"/>
+      <c r="P227"/>
+      <c r="Q227"/>
+      <c r="R227"/>
+      <c r="S227"/>
+      <c r="T227"/>
+      <c r="U227"/>
+      <c r="V227"/>
+      <c r="W227"/>
+      <c r="X227"/>
+    </row>
+    <row r="228" spans="1:24">
       <c r="A228" s="5" t="s">
         <v>633</v>
       </c>
@@ -7121,8 +10247,22 @@
       <c r="E228" s="7" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="K228"/>
+      <c r="L228"/>
+      <c r="M228"/>
+      <c r="N228"/>
+      <c r="O228"/>
+      <c r="P228"/>
+      <c r="Q228"/>
+      <c r="R228"/>
+      <c r="S228"/>
+      <c r="T228"/>
+      <c r="U228"/>
+      <c r="V228"/>
+      <c r="W228"/>
+      <c r="X228"/>
+    </row>
+    <row r="229" spans="1:24">
       <c r="A229" s="5" t="s">
         <v>636</v>
       </c>
@@ -7141,8 +10281,22 @@
       <c r="F229" s="7" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="230" spans="1:6">
+      <c r="K229"/>
+      <c r="L229"/>
+      <c r="M229"/>
+      <c r="N229"/>
+      <c r="O229"/>
+      <c r="P229"/>
+      <c r="Q229"/>
+      <c r="R229"/>
+      <c r="S229"/>
+      <c r="T229"/>
+      <c r="U229"/>
+      <c r="V229"/>
+      <c r="W229"/>
+      <c r="X229"/>
+    </row>
+    <row r="230" spans="1:24">
       <c r="A230" s="5" t="s">
         <v>637</v>
       </c>
@@ -7161,8 +10315,22 @@
       <c r="F230" s="7" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="K230"/>
+      <c r="L230"/>
+      <c r="M230"/>
+      <c r="N230"/>
+      <c r="O230"/>
+      <c r="P230"/>
+      <c r="Q230"/>
+      <c r="R230"/>
+      <c r="S230"/>
+      <c r="T230"/>
+      <c r="U230"/>
+      <c r="V230"/>
+      <c r="W230"/>
+      <c r="X230"/>
+    </row>
+    <row r="231" spans="1:24">
       <c r="A231" s="5" t="s">
         <v>640</v>
       </c>
@@ -7178,8 +10346,22 @@
       <c r="E231" s="7" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="232" spans="1:6">
+      <c r="K231"/>
+      <c r="L231"/>
+      <c r="M231"/>
+      <c r="N231"/>
+      <c r="O231"/>
+      <c r="P231"/>
+      <c r="Q231"/>
+      <c r="R231"/>
+      <c r="S231"/>
+      <c r="T231"/>
+      <c r="U231"/>
+      <c r="V231"/>
+      <c r="W231"/>
+      <c r="X231"/>
+    </row>
+    <row r="232" spans="1:24">
       <c r="A232" s="5" t="s">
         <v>644</v>
       </c>
@@ -7198,8 +10380,22 @@
       <c r="F232" s="7" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="233" spans="1:6">
+      <c r="K232"/>
+      <c r="L232"/>
+      <c r="M232"/>
+      <c r="N232"/>
+      <c r="O232"/>
+      <c r="P232"/>
+      <c r="Q232"/>
+      <c r="R232"/>
+      <c r="S232"/>
+      <c r="T232"/>
+      <c r="U232"/>
+      <c r="V232"/>
+      <c r="W232"/>
+      <c r="X232"/>
+    </row>
+    <row r="233" spans="1:24">
       <c r="A233" s="5" t="s">
         <v>645</v>
       </c>
@@ -7215,8 +10411,22 @@
       <c r="E233" s="7" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="234" spans="1:6">
+      <c r="K233"/>
+      <c r="L233"/>
+      <c r="M233"/>
+      <c r="N233"/>
+      <c r="O233"/>
+      <c r="P233"/>
+      <c r="Q233"/>
+      <c r="R233"/>
+      <c r="S233"/>
+      <c r="T233"/>
+      <c r="U233"/>
+      <c r="V233"/>
+      <c r="W233"/>
+      <c r="X233"/>
+    </row>
+    <row r="234" spans="1:24">
       <c r="A234" s="5" t="s">
         <v>649</v>
       </c>
@@ -7232,8 +10442,22 @@
       <c r="E234" s="7" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="K234"/>
+      <c r="L234"/>
+      <c r="M234"/>
+      <c r="N234"/>
+      <c r="O234"/>
+      <c r="P234"/>
+      <c r="Q234"/>
+      <c r="R234"/>
+      <c r="S234"/>
+      <c r="T234"/>
+      <c r="U234"/>
+      <c r="V234"/>
+      <c r="W234"/>
+      <c r="X234"/>
+    </row>
+    <row r="235" spans="1:24">
       <c r="A235" s="5" t="s">
         <v>650</v>
       </c>
@@ -7252,8 +10476,22 @@
       <c r="F235" s="7" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="236" spans="1:6">
+      <c r="K235"/>
+      <c r="L235"/>
+      <c r="M235"/>
+      <c r="N235"/>
+      <c r="O235"/>
+      <c r="P235"/>
+      <c r="Q235"/>
+      <c r="R235"/>
+      <c r="S235"/>
+      <c r="T235"/>
+      <c r="U235"/>
+      <c r="V235"/>
+      <c r="W235"/>
+      <c r="X235"/>
+    </row>
+    <row r="236" spans="1:24">
       <c r="A236" s="5" t="s">
         <v>653</v>
       </c>
@@ -7269,8 +10507,22 @@
       <c r="E236" s="7" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="237" spans="1:6">
+      <c r="K236"/>
+      <c r="L236"/>
+      <c r="M236"/>
+      <c r="N236"/>
+      <c r="O236"/>
+      <c r="P236"/>
+      <c r="Q236"/>
+      <c r="R236"/>
+      <c r="S236"/>
+      <c r="T236"/>
+      <c r="U236"/>
+      <c r="V236"/>
+      <c r="W236"/>
+      <c r="X236"/>
+    </row>
+    <row r="237" spans="1:24">
       <c r="A237" s="5" t="s">
         <v>656</v>
       </c>
@@ -7286,8 +10538,22 @@
       <c r="E237" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="238" spans="1:6">
+      <c r="K237"/>
+      <c r="L237"/>
+      <c r="M237"/>
+      <c r="N237"/>
+      <c r="O237"/>
+      <c r="P237"/>
+      <c r="Q237"/>
+      <c r="R237"/>
+      <c r="S237"/>
+      <c r="T237"/>
+      <c r="U237"/>
+      <c r="V237"/>
+      <c r="W237"/>
+      <c r="X237"/>
+    </row>
+    <row r="238" spans="1:24">
       <c r="A238" s="5" t="s">
         <v>657</v>
       </c>
@@ -7303,8 +10569,22 @@
       <c r="E238" s="7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="239" spans="1:6">
+      <c r="K238"/>
+      <c r="L238"/>
+      <c r="M238"/>
+      <c r="N238"/>
+      <c r="O238"/>
+      <c r="P238"/>
+      <c r="Q238"/>
+      <c r="R238"/>
+      <c r="S238"/>
+      <c r="T238"/>
+      <c r="U238"/>
+      <c r="V238"/>
+      <c r="W238"/>
+      <c r="X238"/>
+    </row>
+    <row r="239" spans="1:24">
       <c r="A239" s="5" t="s">
         <v>659</v>
       </c>
@@ -7320,8 +10600,22 @@
       <c r="E239" s="7" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="240" spans="1:6">
+      <c r="K239"/>
+      <c r="L239"/>
+      <c r="M239"/>
+      <c r="N239"/>
+      <c r="O239"/>
+      <c r="P239"/>
+      <c r="Q239"/>
+      <c r="R239"/>
+      <c r="S239"/>
+      <c r="T239"/>
+      <c r="U239"/>
+      <c r="V239"/>
+      <c r="W239"/>
+      <c r="X239"/>
+    </row>
+    <row r="240" spans="1:24">
       <c r="A240" s="5" t="s">
         <v>663</v>
       </c>
@@ -7337,8 +10631,22 @@
       <c r="E240" s="7" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="K240"/>
+      <c r="L240"/>
+      <c r="M240"/>
+      <c r="N240"/>
+      <c r="O240"/>
+      <c r="P240"/>
+      <c r="Q240"/>
+      <c r="R240"/>
+      <c r="S240"/>
+      <c r="T240"/>
+      <c r="U240"/>
+      <c r="V240"/>
+      <c r="W240"/>
+      <c r="X240"/>
+    </row>
+    <row r="241" spans="1:24">
       <c r="A241" s="5" t="s">
         <v>664</v>
       </c>
@@ -7354,8 +10662,22 @@
       <c r="E241" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="K241"/>
+      <c r="L241"/>
+      <c r="M241"/>
+      <c r="N241"/>
+      <c r="O241"/>
+      <c r="P241"/>
+      <c r="Q241"/>
+      <c r="R241"/>
+      <c r="S241"/>
+      <c r="T241"/>
+      <c r="U241"/>
+      <c r="V241"/>
+      <c r="W241"/>
+      <c r="X241"/>
+    </row>
+    <row r="242" spans="1:24">
       <c r="A242" s="5" t="s">
         <v>667</v>
       </c>
@@ -7374,8 +10696,22 @@
       <c r="F242" s="7" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="K242"/>
+      <c r="L242"/>
+      <c r="M242"/>
+      <c r="N242"/>
+      <c r="O242"/>
+      <c r="P242"/>
+      <c r="Q242"/>
+      <c r="R242"/>
+      <c r="S242"/>
+      <c r="T242"/>
+      <c r="U242"/>
+      <c r="V242"/>
+      <c r="W242"/>
+      <c r="X242"/>
+    </row>
+    <row r="243" spans="1:24">
       <c r="A243" s="5" t="s">
         <v>670</v>
       </c>
@@ -7391,8 +10727,22 @@
       <c r="E243" s="7" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="244" spans="1:7">
+      <c r="K243"/>
+      <c r="L243"/>
+      <c r="M243"/>
+      <c r="N243"/>
+      <c r="O243"/>
+      <c r="P243"/>
+      <c r="Q243"/>
+      <c r="R243"/>
+      <c r="S243"/>
+      <c r="T243"/>
+      <c r="U243"/>
+      <c r="V243"/>
+      <c r="W243"/>
+      <c r="X243"/>
+    </row>
+    <row r="244" spans="1:24">
       <c r="A244" s="5" t="s">
         <v>671</v>
       </c>
@@ -7411,8 +10761,22 @@
       <c r="F244" s="7" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="K244"/>
+      <c r="L244"/>
+      <c r="M244"/>
+      <c r="N244"/>
+      <c r="O244"/>
+      <c r="P244"/>
+      <c r="Q244"/>
+      <c r="R244"/>
+      <c r="S244"/>
+      <c r="T244"/>
+      <c r="U244"/>
+      <c r="V244"/>
+      <c r="W244"/>
+      <c r="X244"/>
+    </row>
+    <row r="245" spans="1:24">
       <c r="A245" s="5" t="s">
         <v>673</v>
       </c>
@@ -7428,8 +10792,22 @@
       <c r="E245" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="246" spans="1:7">
+      <c r="K245"/>
+      <c r="L245"/>
+      <c r="M245"/>
+      <c r="N245"/>
+      <c r="O245"/>
+      <c r="P245"/>
+      <c r="Q245"/>
+      <c r="R245"/>
+      <c r="S245"/>
+      <c r="T245"/>
+      <c r="U245"/>
+      <c r="V245"/>
+      <c r="W245"/>
+      <c r="X245"/>
+    </row>
+    <row r="246" spans="1:24">
       <c r="A246" s="5" t="s">
         <v>676</v>
       </c>
@@ -7445,8 +10823,22 @@
       <c r="E246" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="247" spans="1:7">
+      <c r="K246"/>
+      <c r="L246"/>
+      <c r="M246"/>
+      <c r="N246"/>
+      <c r="O246"/>
+      <c r="P246"/>
+      <c r="Q246"/>
+      <c r="R246"/>
+      <c r="S246"/>
+      <c r="T246"/>
+      <c r="U246"/>
+      <c r="V246"/>
+      <c r="W246"/>
+      <c r="X246"/>
+    </row>
+    <row r="247" spans="1:24">
       <c r="A247" s="5" t="s">
         <v>679</v>
       </c>
@@ -7468,8 +10860,22 @@
       <c r="G247" s="7" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="248" spans="1:7">
+      <c r="K247"/>
+      <c r="L247"/>
+      <c r="M247"/>
+      <c r="N247"/>
+      <c r="O247"/>
+      <c r="P247"/>
+      <c r="Q247"/>
+      <c r="R247"/>
+      <c r="S247"/>
+      <c r="T247"/>
+      <c r="U247"/>
+      <c r="V247"/>
+      <c r="W247"/>
+      <c r="X247"/>
+    </row>
+    <row r="248" spans="1:24">
       <c r="A248" s="5" t="s">
         <v>682</v>
       </c>
@@ -7488,8 +10894,22 @@
       <c r="F248" s="7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="249" spans="1:7">
+      <c r="K248"/>
+      <c r="L248"/>
+      <c r="M248"/>
+      <c r="N248"/>
+      <c r="O248"/>
+      <c r="P248"/>
+      <c r="Q248"/>
+      <c r="R248"/>
+      <c r="S248"/>
+      <c r="T248"/>
+      <c r="U248"/>
+      <c r="V248"/>
+      <c r="W248"/>
+      <c r="X248"/>
+    </row>
+    <row r="249" spans="1:24">
       <c r="A249" s="5" t="s">
         <v>683</v>
       </c>
@@ -7502,8 +10922,22 @@
       <c r="D249" s="7" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="250" spans="1:7">
+      <c r="K249"/>
+      <c r="L249"/>
+      <c r="M249"/>
+      <c r="N249"/>
+      <c r="O249"/>
+      <c r="P249"/>
+      <c r="Q249"/>
+      <c r="R249"/>
+      <c r="S249"/>
+      <c r="T249"/>
+      <c r="U249"/>
+      <c r="V249"/>
+      <c r="W249"/>
+      <c r="X249"/>
+    </row>
+    <row r="250" spans="1:24">
       <c r="A250" s="5" t="s">
         <v>686</v>
       </c>
@@ -7522,8 +10956,22 @@
       <c r="F250" s="7" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="251" spans="1:7">
+      <c r="K250"/>
+      <c r="L250"/>
+      <c r="M250"/>
+      <c r="N250"/>
+      <c r="O250"/>
+      <c r="P250"/>
+      <c r="Q250"/>
+      <c r="R250"/>
+      <c r="S250"/>
+      <c r="T250"/>
+      <c r="U250"/>
+      <c r="V250"/>
+      <c r="W250"/>
+      <c r="X250"/>
+    </row>
+    <row r="251" spans="1:24">
       <c r="A251" s="5" t="s">
         <v>688</v>
       </c>
@@ -7542,8 +10990,22 @@
       <c r="F251" s="7" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="252" spans="1:7">
+      <c r="K251"/>
+      <c r="L251"/>
+      <c r="M251"/>
+      <c r="N251"/>
+      <c r="O251"/>
+      <c r="P251"/>
+      <c r="Q251"/>
+      <c r="R251"/>
+      <c r="S251"/>
+      <c r="T251"/>
+      <c r="U251"/>
+      <c r="V251"/>
+      <c r="W251"/>
+      <c r="X251"/>
+    </row>
+    <row r="252" spans="1:24">
       <c r="A252" s="5" t="s">
         <v>689</v>
       </c>
@@ -7559,8 +11021,22 @@
       <c r="E252" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="253" spans="1:7">
+      <c r="K252"/>
+      <c r="L252"/>
+      <c r="M252"/>
+      <c r="N252"/>
+      <c r="O252"/>
+      <c r="P252"/>
+      <c r="Q252"/>
+      <c r="R252"/>
+      <c r="S252"/>
+      <c r="T252"/>
+      <c r="U252"/>
+      <c r="V252"/>
+      <c r="W252"/>
+      <c r="X252"/>
+    </row>
+    <row r="253" spans="1:24">
       <c r="A253" s="5" t="s">
         <v>692</v>
       </c>
@@ -7576,8 +11052,22 @@
       <c r="E253" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="K253"/>
+      <c r="L253"/>
+      <c r="M253"/>
+      <c r="N253"/>
+      <c r="O253"/>
+      <c r="P253"/>
+      <c r="Q253"/>
+      <c r="R253"/>
+      <c r="S253"/>
+      <c r="T253"/>
+      <c r="U253"/>
+      <c r="V253"/>
+      <c r="W253"/>
+      <c r="X253"/>
+    </row>
+    <row r="254" spans="1:24">
       <c r="A254" s="5" t="s">
         <v>693</v>
       </c>
@@ -7593,8 +11083,22 @@
       <c r="E254" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="255" spans="1:7">
+      <c r="K254"/>
+      <c r="L254"/>
+      <c r="M254"/>
+      <c r="N254"/>
+      <c r="O254"/>
+      <c r="P254"/>
+      <c r="Q254"/>
+      <c r="R254"/>
+      <c r="S254"/>
+      <c r="T254"/>
+      <c r="U254"/>
+      <c r="V254"/>
+      <c r="W254"/>
+      <c r="X254"/>
+    </row>
+    <row r="255" spans="1:24">
       <c r="A255" s="5" t="s">
         <v>694</v>
       </c>
@@ -7610,8 +11114,22 @@
       <c r="E255" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="256" spans="1:7">
+      <c r="K255"/>
+      <c r="L255"/>
+      <c r="M255"/>
+      <c r="N255"/>
+      <c r="O255"/>
+      <c r="P255"/>
+      <c r="Q255"/>
+      <c r="R255"/>
+      <c r="S255"/>
+      <c r="T255"/>
+      <c r="U255"/>
+      <c r="V255"/>
+      <c r="W255"/>
+      <c r="X255"/>
+    </row>
+    <row r="256" spans="1:24">
       <c r="A256" s="5" t="s">
         <v>697</v>
       </c>
@@ -7624,8 +11142,22 @@
       <c r="D256" s="7" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="257" spans="1:6">
+      <c r="K256"/>
+      <c r="L256"/>
+      <c r="M256"/>
+      <c r="N256"/>
+      <c r="O256"/>
+      <c r="P256"/>
+      <c r="Q256"/>
+      <c r="R256"/>
+      <c r="S256"/>
+      <c r="T256"/>
+      <c r="U256"/>
+      <c r="V256"/>
+      <c r="W256"/>
+      <c r="X256"/>
+    </row>
+    <row r="257" spans="1:24">
       <c r="A257" s="5" t="s">
         <v>698</v>
       </c>
@@ -7644,8 +11176,22 @@
       <c r="F257" s="7" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="258" spans="1:6">
+      <c r="K257"/>
+      <c r="L257"/>
+      <c r="M257"/>
+      <c r="N257"/>
+      <c r="O257"/>
+      <c r="P257"/>
+      <c r="Q257"/>
+      <c r="R257"/>
+      <c r="S257"/>
+      <c r="T257"/>
+      <c r="U257"/>
+      <c r="V257"/>
+      <c r="W257"/>
+      <c r="X257"/>
+    </row>
+    <row r="258" spans="1:24">
       <c r="A258" s="5" t="s">
         <v>700</v>
       </c>
@@ -7658,8 +11204,22 @@
       <c r="D258" s="7" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="259" spans="1:6">
+      <c r="K258"/>
+      <c r="L258"/>
+      <c r="M258"/>
+      <c r="N258"/>
+      <c r="O258"/>
+      <c r="P258"/>
+      <c r="Q258"/>
+      <c r="R258"/>
+      <c r="S258"/>
+      <c r="T258"/>
+      <c r="U258"/>
+      <c r="V258"/>
+      <c r="W258"/>
+      <c r="X258"/>
+    </row>
+    <row r="259" spans="1:24">
       <c r="A259" s="5" t="s">
         <v>701</v>
       </c>
@@ -7678,8 +11238,22 @@
       <c r="F259" s="7" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="260" spans="1:6">
+      <c r="K259"/>
+      <c r="L259"/>
+      <c r="M259"/>
+      <c r="N259"/>
+      <c r="O259"/>
+      <c r="P259"/>
+      <c r="Q259"/>
+      <c r="R259"/>
+      <c r="S259"/>
+      <c r="T259"/>
+      <c r="U259"/>
+      <c r="V259"/>
+      <c r="W259"/>
+      <c r="X259"/>
+    </row>
+    <row r="260" spans="1:24">
       <c r="A260" s="5" t="s">
         <v>702</v>
       </c>
@@ -7695,8 +11269,22 @@
       <c r="E260" s="7" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="261" spans="1:6">
+      <c r="K260"/>
+      <c r="L260"/>
+      <c r="M260"/>
+      <c r="N260"/>
+      <c r="O260"/>
+      <c r="P260"/>
+      <c r="Q260"/>
+      <c r="R260"/>
+      <c r="S260"/>
+      <c r="T260"/>
+      <c r="U260"/>
+      <c r="V260"/>
+      <c r="W260"/>
+      <c r="X260"/>
+    </row>
+    <row r="261" spans="1:24">
       <c r="A261" s="5" t="s">
         <v>704</v>
       </c>
@@ -7712,8 +11300,22 @@
       <c r="E261" s="7" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="262" spans="1:6">
+      <c r="K261"/>
+      <c r="L261"/>
+      <c r="M261"/>
+      <c r="N261"/>
+      <c r="O261"/>
+      <c r="P261"/>
+      <c r="Q261"/>
+      <c r="R261"/>
+      <c r="S261"/>
+      <c r="T261"/>
+      <c r="U261"/>
+      <c r="V261"/>
+      <c r="W261"/>
+      <c r="X261"/>
+    </row>
+    <row r="262" spans="1:24">
       <c r="A262" s="5" t="s">
         <v>705</v>
       </c>
@@ -7729,8 +11331,22 @@
       <c r="E262" s="7" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="263" spans="1:6">
+      <c r="K262"/>
+      <c r="L262"/>
+      <c r="M262"/>
+      <c r="N262"/>
+      <c r="O262"/>
+      <c r="P262"/>
+      <c r="Q262"/>
+      <c r="R262"/>
+      <c r="S262"/>
+      <c r="T262"/>
+      <c r="U262"/>
+      <c r="V262"/>
+      <c r="W262"/>
+      <c r="X262"/>
+    </row>
+    <row r="263" spans="1:24">
       <c r="A263" s="5" t="s">
         <v>706</v>
       </c>
@@ -7746,8 +11362,22 @@
       <c r="E263" s="7" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="264" spans="1:6">
+      <c r="K263"/>
+      <c r="L263"/>
+      <c r="M263"/>
+      <c r="N263"/>
+      <c r="O263"/>
+      <c r="P263"/>
+      <c r="Q263"/>
+      <c r="R263"/>
+      <c r="S263"/>
+      <c r="T263"/>
+      <c r="U263"/>
+      <c r="V263"/>
+      <c r="W263"/>
+      <c r="X263"/>
+    </row>
+    <row r="264" spans="1:24">
       <c r="A264" s="5" t="s">
         <v>710</v>
       </c>
@@ -7760,8 +11390,22 @@
       <c r="D264" s="7" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="265" spans="1:6">
+      <c r="K264"/>
+      <c r="L264"/>
+      <c r="M264"/>
+      <c r="N264"/>
+      <c r="O264"/>
+      <c r="P264"/>
+      <c r="Q264"/>
+      <c r="R264"/>
+      <c r="S264"/>
+      <c r="T264"/>
+      <c r="U264"/>
+      <c r="V264"/>
+      <c r="W264"/>
+      <c r="X264"/>
+    </row>
+    <row r="265" spans="1:24">
       <c r="A265" s="5" t="s">
         <v>711</v>
       </c>
@@ -7774,8 +11418,22 @@
       <c r="D265" s="7" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="266" spans="1:6">
+      <c r="K265"/>
+      <c r="L265"/>
+      <c r="M265"/>
+      <c r="N265"/>
+      <c r="O265"/>
+      <c r="P265"/>
+      <c r="Q265"/>
+      <c r="R265"/>
+      <c r="S265"/>
+      <c r="T265"/>
+      <c r="U265"/>
+      <c r="V265"/>
+      <c r="W265"/>
+      <c r="X265"/>
+    </row>
+    <row r="266" spans="1:24">
       <c r="A266" s="5" t="s">
         <v>712</v>
       </c>
@@ -7788,8 +11446,22 @@
       <c r="D266" s="7" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="267" spans="1:6">
+      <c r="K266"/>
+      <c r="L266"/>
+      <c r="M266"/>
+      <c r="N266"/>
+      <c r="O266"/>
+      <c r="P266"/>
+      <c r="Q266"/>
+      <c r="R266"/>
+      <c r="S266"/>
+      <c r="T266"/>
+      <c r="U266"/>
+      <c r="V266"/>
+      <c r="W266"/>
+      <c r="X266"/>
+    </row>
+    <row r="267" spans="1:24">
       <c r="A267" s="5" t="s">
         <v>713</v>
       </c>
@@ -7805,8 +11477,22 @@
       <c r="E267" s="7" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="268" spans="1:6">
+      <c r="K267"/>
+      <c r="L267"/>
+      <c r="M267"/>
+      <c r="N267"/>
+      <c r="O267"/>
+      <c r="P267"/>
+      <c r="Q267"/>
+      <c r="R267"/>
+      <c r="S267"/>
+      <c r="T267"/>
+      <c r="U267"/>
+      <c r="V267"/>
+      <c r="W267"/>
+      <c r="X267"/>
+    </row>
+    <row r="268" spans="1:24">
       <c r="A268" s="5" t="s">
         <v>715</v>
       </c>
@@ -7822,8 +11508,22 @@
       <c r="E268" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="269" spans="1:6">
+      <c r="K268"/>
+      <c r="L268"/>
+      <c r="M268"/>
+      <c r="N268"/>
+      <c r="O268"/>
+      <c r="P268"/>
+      <c r="Q268"/>
+      <c r="R268"/>
+      <c r="S268"/>
+      <c r="T268"/>
+      <c r="U268"/>
+      <c r="V268"/>
+      <c r="W268"/>
+      <c r="X268"/>
+    </row>
+    <row r="269" spans="1:24">
       <c r="A269" s="5" t="s">
         <v>716</v>
       </c>
@@ -7839,8 +11539,22 @@
       <c r="E269" s="7" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="270" spans="1:6">
+      <c r="K269"/>
+      <c r="L269"/>
+      <c r="M269"/>
+      <c r="N269"/>
+      <c r="O269"/>
+      <c r="P269"/>
+      <c r="Q269"/>
+      <c r="R269"/>
+      <c r="S269"/>
+      <c r="T269"/>
+      <c r="U269"/>
+      <c r="V269"/>
+      <c r="W269"/>
+      <c r="X269"/>
+    </row>
+    <row r="270" spans="1:24">
       <c r="A270" s="5" t="s">
         <v>718</v>
       </c>
@@ -7853,8 +11567,22 @@
       <c r="D270" s="7" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="271" spans="1:6">
+      <c r="K270"/>
+      <c r="L270"/>
+      <c r="M270"/>
+      <c r="N270"/>
+      <c r="O270"/>
+      <c r="P270"/>
+      <c r="Q270"/>
+      <c r="R270"/>
+      <c r="S270"/>
+      <c r="T270"/>
+      <c r="U270"/>
+      <c r="V270"/>
+      <c r="W270"/>
+      <c r="X270"/>
+    </row>
+    <row r="271" spans="1:24">
       <c r="A271" s="5" t="s">
         <v>719</v>
       </c>
@@ -7867,8 +11595,22 @@
       <c r="D271" s="7" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="272" spans="1:6">
+      <c r="K271"/>
+      <c r="L271"/>
+      <c r="M271"/>
+      <c r="N271"/>
+      <c r="O271"/>
+      <c r="P271"/>
+      <c r="Q271"/>
+      <c r="R271"/>
+      <c r="S271"/>
+      <c r="T271"/>
+      <c r="U271"/>
+      <c r="V271"/>
+      <c r="W271"/>
+      <c r="X271"/>
+    </row>
+    <row r="272" spans="1:24">
       <c r="A272" s="5" t="s">
         <v>721</v>
       </c>
@@ -7881,8 +11623,22 @@
       <c r="D272" s="7" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="273" spans="1:6">
+      <c r="K272"/>
+      <c r="L272"/>
+      <c r="M272"/>
+      <c r="N272"/>
+      <c r="O272"/>
+      <c r="P272"/>
+      <c r="Q272"/>
+      <c r="R272"/>
+      <c r="S272"/>
+      <c r="T272"/>
+      <c r="U272"/>
+      <c r="V272"/>
+      <c r="W272"/>
+      <c r="X272"/>
+    </row>
+    <row r="273" spans="1:24">
       <c r="A273" s="5" t="s">
         <v>722</v>
       </c>
@@ -7901,8 +11657,22 @@
       <c r="F273" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="274" spans="1:6">
+      <c r="K273"/>
+      <c r="L273"/>
+      <c r="M273"/>
+      <c r="N273"/>
+      <c r="O273"/>
+      <c r="P273"/>
+      <c r="Q273"/>
+      <c r="R273"/>
+      <c r="S273"/>
+      <c r="T273"/>
+      <c r="U273"/>
+      <c r="V273"/>
+      <c r="W273"/>
+      <c r="X273"/>
+    </row>
+    <row r="274" spans="1:24">
       <c r="A274" s="5" t="s">
         <v>723</v>
       </c>
@@ -7921,8 +11691,22 @@
       <c r="F274" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="275" spans="1:6">
+      <c r="K274"/>
+      <c r="L274"/>
+      <c r="M274"/>
+      <c r="N274"/>
+      <c r="O274"/>
+      <c r="P274"/>
+      <c r="Q274"/>
+      <c r="R274"/>
+      <c r="S274"/>
+      <c r="T274"/>
+      <c r="U274"/>
+      <c r="V274"/>
+      <c r="W274"/>
+      <c r="X274"/>
+    </row>
+    <row r="275" spans="1:24">
       <c r="A275" s="5" t="s">
         <v>725</v>
       </c>
@@ -7938,8 +11722,22 @@
       <c r="E275" s="7" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="276" spans="1:6">
+      <c r="K275"/>
+      <c r="L275"/>
+      <c r="M275"/>
+      <c r="N275"/>
+      <c r="O275"/>
+      <c r="P275"/>
+      <c r="Q275"/>
+      <c r="R275"/>
+      <c r="S275"/>
+      <c r="T275"/>
+      <c r="U275"/>
+      <c r="V275"/>
+      <c r="W275"/>
+      <c r="X275"/>
+    </row>
+    <row r="276" spans="1:24">
       <c r="A276" s="5" t="s">
         <v>727</v>
       </c>
@@ -7955,8 +11753,22 @@
       <c r="E276" s="7" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="277" spans="1:6">
+      <c r="K276"/>
+      <c r="L276"/>
+      <c r="M276"/>
+      <c r="N276"/>
+      <c r="O276"/>
+      <c r="P276"/>
+      <c r="Q276"/>
+      <c r="R276"/>
+      <c r="S276"/>
+      <c r="T276"/>
+      <c r="U276"/>
+      <c r="V276"/>
+      <c r="W276"/>
+      <c r="X276"/>
+    </row>
+    <row r="277" spans="1:24">
       <c r="A277" s="5" t="s">
         <v>729</v>
       </c>
@@ -7975,8 +11787,22 @@
       <c r="F277" s="7" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="278" spans="1:6">
+      <c r="K277"/>
+      <c r="L277"/>
+      <c r="M277"/>
+      <c r="N277"/>
+      <c r="O277"/>
+      <c r="P277"/>
+      <c r="Q277"/>
+      <c r="R277"/>
+      <c r="S277"/>
+      <c r="T277"/>
+      <c r="U277"/>
+      <c r="V277"/>
+      <c r="W277"/>
+      <c r="X277"/>
+    </row>
+    <row r="278" spans="1:24">
       <c r="A278" s="5" t="s">
         <v>730</v>
       </c>
@@ -7992,8 +11818,22 @@
       <c r="E278" s="7" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="279" spans="1:6">
+      <c r="K278"/>
+      <c r="L278"/>
+      <c r="M278"/>
+      <c r="N278"/>
+      <c r="O278"/>
+      <c r="P278"/>
+      <c r="Q278"/>
+      <c r="R278"/>
+      <c r="S278"/>
+      <c r="T278"/>
+      <c r="U278"/>
+      <c r="V278"/>
+      <c r="W278"/>
+      <c r="X278"/>
+    </row>
+    <row r="279" spans="1:24">
       <c r="A279" s="5" t="s">
         <v>732</v>
       </c>
@@ -8006,8 +11846,22 @@
       <c r="D279" s="7" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="280" spans="1:6">
+      <c r="K279"/>
+      <c r="L279"/>
+      <c r="M279"/>
+      <c r="N279"/>
+      <c r="O279"/>
+      <c r="P279"/>
+      <c r="Q279"/>
+      <c r="R279"/>
+      <c r="S279"/>
+      <c r="T279"/>
+      <c r="U279"/>
+      <c r="V279"/>
+      <c r="W279"/>
+      <c r="X279"/>
+    </row>
+    <row r="280" spans="1:24">
       <c r="A280" s="5" t="s">
         <v>735</v>
       </c>
@@ -8023,8 +11877,22 @@
       <c r="E280" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="281" spans="1:6">
+      <c r="K280"/>
+      <c r="L280"/>
+      <c r="M280"/>
+      <c r="N280"/>
+      <c r="O280"/>
+      <c r="P280"/>
+      <c r="Q280"/>
+      <c r="R280"/>
+      <c r="S280"/>
+      <c r="T280"/>
+      <c r="U280"/>
+      <c r="V280"/>
+      <c r="W280"/>
+      <c r="X280"/>
+    </row>
+    <row r="281" spans="1:24">
       <c r="A281" s="5" t="s">
         <v>737</v>
       </c>
@@ -8040,8 +11908,22 @@
       <c r="E281" s="7" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="282" spans="1:6">
+      <c r="K281"/>
+      <c r="L281"/>
+      <c r="M281"/>
+      <c r="N281"/>
+      <c r="O281"/>
+      <c r="P281"/>
+      <c r="Q281"/>
+      <c r="R281"/>
+      <c r="S281"/>
+      <c r="T281"/>
+      <c r="U281"/>
+      <c r="V281"/>
+      <c r="W281"/>
+      <c r="X281"/>
+    </row>
+    <row r="282" spans="1:24">
       <c r="A282" s="5" t="s">
         <v>741</v>
       </c>
@@ -8060,8 +11942,22 @@
       <c r="F282" s="7" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="283" spans="1:6">
+      <c r="K282"/>
+      <c r="L282"/>
+      <c r="M282"/>
+      <c r="N282"/>
+      <c r="O282"/>
+      <c r="P282"/>
+      <c r="Q282"/>
+      <c r="R282"/>
+      <c r="S282"/>
+      <c r="T282"/>
+      <c r="U282"/>
+      <c r="V282"/>
+      <c r="W282"/>
+      <c r="X282"/>
+    </row>
+    <row r="283" spans="1:24">
       <c r="A283" s="5" t="s">
         <v>743</v>
       </c>
@@ -8080,8 +11976,22 @@
       <c r="F283" s="7" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="284" spans="1:6">
+      <c r="K283"/>
+      <c r="L283"/>
+      <c r="M283"/>
+      <c r="N283"/>
+      <c r="O283"/>
+      <c r="P283"/>
+      <c r="Q283"/>
+      <c r="R283"/>
+      <c r="S283"/>
+      <c r="T283"/>
+      <c r="U283"/>
+      <c r="V283"/>
+      <c r="W283"/>
+      <c r="X283"/>
+    </row>
+    <row r="284" spans="1:24">
       <c r="A284" s="5" t="s">
         <v>744</v>
       </c>
@@ -8100,8 +12010,22 @@
       <c r="F284" s="7" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="285" spans="1:6">
+      <c r="K284"/>
+      <c r="L284"/>
+      <c r="M284"/>
+      <c r="N284"/>
+      <c r="O284"/>
+      <c r="P284"/>
+      <c r="Q284"/>
+      <c r="R284"/>
+      <c r="S284"/>
+      <c r="T284"/>
+      <c r="U284"/>
+      <c r="V284"/>
+      <c r="W284"/>
+      <c r="X284"/>
+    </row>
+    <row r="285" spans="1:24">
       <c r="A285" s="5" t="s">
         <v>745</v>
       </c>
@@ -8117,8 +12041,22 @@
       <c r="E285" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="286" spans="1:6">
+      <c r="K285"/>
+      <c r="L285"/>
+      <c r="M285"/>
+      <c r="N285"/>
+      <c r="O285"/>
+      <c r="P285"/>
+      <c r="Q285"/>
+      <c r="R285"/>
+      <c r="S285"/>
+      <c r="T285"/>
+      <c r="U285"/>
+      <c r="V285"/>
+      <c r="W285"/>
+      <c r="X285"/>
+    </row>
+    <row r="286" spans="1:24">
       <c r="A286" s="5" t="s">
         <v>746</v>
       </c>
@@ -8137,8 +12075,22 @@
       <c r="F286" s="7" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="287" spans="1:6">
+      <c r="K286"/>
+      <c r="L286"/>
+      <c r="M286"/>
+      <c r="N286"/>
+      <c r="O286"/>
+      <c r="P286"/>
+      <c r="Q286"/>
+      <c r="R286"/>
+      <c r="S286"/>
+      <c r="T286"/>
+      <c r="U286"/>
+      <c r="V286"/>
+      <c r="W286"/>
+      <c r="X286"/>
+    </row>
+    <row r="287" spans="1:24">
       <c r="A287" s="5" t="s">
         <v>750</v>
       </c>
@@ -8157,8 +12109,22 @@
       <c r="F287" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="288" spans="1:6">
+      <c r="K287"/>
+      <c r="L287"/>
+      <c r="M287"/>
+      <c r="N287"/>
+      <c r="O287"/>
+      <c r="P287"/>
+      <c r="Q287"/>
+      <c r="R287"/>
+      <c r="S287"/>
+      <c r="T287"/>
+      <c r="U287"/>
+      <c r="V287"/>
+      <c r="W287"/>
+      <c r="X287"/>
+    </row>
+    <row r="288" spans="1:24">
       <c r="A288" s="5" t="s">
         <v>752</v>
       </c>
@@ -8174,8 +12140,22 @@
       <c r="E288" s="7" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="289" spans="1:6">
+      <c r="K288"/>
+      <c r="L288"/>
+      <c r="M288"/>
+      <c r="N288"/>
+      <c r="O288"/>
+      <c r="P288"/>
+      <c r="Q288"/>
+      <c r="R288"/>
+      <c r="S288"/>
+      <c r="T288"/>
+      <c r="U288"/>
+      <c r="V288"/>
+      <c r="W288"/>
+      <c r="X288"/>
+    </row>
+    <row r="289" spans="1:24">
       <c r="A289" s="5" t="s">
         <v>755</v>
       </c>
@@ -8194,8 +12174,22 @@
       <c r="F289" s="7" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="290" spans="1:6">
+      <c r="K289"/>
+      <c r="L289"/>
+      <c r="M289"/>
+      <c r="N289"/>
+      <c r="O289"/>
+      <c r="P289"/>
+      <c r="Q289"/>
+      <c r="R289"/>
+      <c r="S289"/>
+      <c r="T289"/>
+      <c r="U289"/>
+      <c r="V289"/>
+      <c r="W289"/>
+      <c r="X289"/>
+    </row>
+    <row r="290" spans="1:24">
       <c r="A290" s="5" t="s">
         <v>759</v>
       </c>
@@ -8214,8 +12208,22 @@
       <c r="F290" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="291" spans="1:6">
+      <c r="K290"/>
+      <c r="L290"/>
+      <c r="M290"/>
+      <c r="N290"/>
+      <c r="O290"/>
+      <c r="P290"/>
+      <c r="Q290"/>
+      <c r="R290"/>
+      <c r="S290"/>
+      <c r="T290"/>
+      <c r="U290"/>
+      <c r="V290"/>
+      <c r="W290"/>
+      <c r="X290"/>
+    </row>
+    <row r="291" spans="1:24">
       <c r="A291" s="5" t="s">
         <v>760</v>
       </c>
@@ -8228,8 +12236,22 @@
       <c r="D291" s="7" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="292" spans="1:6">
+      <c r="K291"/>
+      <c r="L291"/>
+      <c r="M291"/>
+      <c r="N291"/>
+      <c r="O291"/>
+      <c r="P291"/>
+      <c r="Q291"/>
+      <c r="R291"/>
+      <c r="S291"/>
+      <c r="T291"/>
+      <c r="U291"/>
+      <c r="V291"/>
+      <c r="W291"/>
+      <c r="X291"/>
+    </row>
+    <row r="292" spans="1:24">
       <c r="A292" s="5" t="s">
         <v>763</v>
       </c>
@@ -8245,8 +12267,22 @@
       <c r="E292" s="7" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="293" spans="1:6">
+      <c r="K292"/>
+      <c r="L292"/>
+      <c r="M292"/>
+      <c r="N292"/>
+      <c r="O292"/>
+      <c r="P292"/>
+      <c r="Q292"/>
+      <c r="R292"/>
+      <c r="S292"/>
+      <c r="T292"/>
+      <c r="U292"/>
+      <c r="V292"/>
+      <c r="W292"/>
+      <c r="X292"/>
+    </row>
+    <row r="293" spans="1:24">
       <c r="A293" s="5" t="s">
         <v>765</v>
       </c>
@@ -8262,8 +12298,22 @@
       <c r="E293" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="294" spans="1:6">
+      <c r="K293"/>
+      <c r="L293"/>
+      <c r="M293"/>
+      <c r="N293"/>
+      <c r="O293"/>
+      <c r="P293"/>
+      <c r="Q293"/>
+      <c r="R293"/>
+      <c r="S293"/>
+      <c r="T293"/>
+      <c r="U293"/>
+      <c r="V293"/>
+      <c r="W293"/>
+      <c r="X293"/>
+    </row>
+    <row r="294" spans="1:24">
       <c r="A294" s="5" t="s">
         <v>766</v>
       </c>
@@ -8282,8 +12332,22 @@
       <c r="F294" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="295" spans="1:6">
+      <c r="K294"/>
+      <c r="L294"/>
+      <c r="M294"/>
+      <c r="N294"/>
+      <c r="O294"/>
+      <c r="P294"/>
+      <c r="Q294"/>
+      <c r="R294"/>
+      <c r="S294"/>
+      <c r="T294"/>
+      <c r="U294"/>
+      <c r="V294"/>
+      <c r="W294"/>
+      <c r="X294"/>
+    </row>
+    <row r="295" spans="1:24">
       <c r="A295" s="5" t="s">
         <v>767</v>
       </c>
@@ -8296,8 +12360,22 @@
       <c r="D295" s="7" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="296" spans="1:6">
+      <c r="K295"/>
+      <c r="L295"/>
+      <c r="M295"/>
+      <c r="N295"/>
+      <c r="O295"/>
+      <c r="P295"/>
+      <c r="Q295"/>
+      <c r="R295"/>
+      <c r="S295"/>
+      <c r="T295"/>
+      <c r="U295"/>
+      <c r="V295"/>
+      <c r="W295"/>
+      <c r="X295"/>
+    </row>
+    <row r="296" spans="1:24">
       <c r="A296" s="5" t="s">
         <v>768</v>
       </c>
@@ -8313,8 +12391,22 @@
       <c r="E296" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="297" spans="1:6">
+      <c r="K296"/>
+      <c r="L296"/>
+      <c r="M296"/>
+      <c r="N296"/>
+      <c r="O296"/>
+      <c r="P296"/>
+      <c r="Q296"/>
+      <c r="R296"/>
+      <c r="S296"/>
+      <c r="T296"/>
+      <c r="U296"/>
+      <c r="V296"/>
+      <c r="W296"/>
+      <c r="X296"/>
+    </row>
+    <row r="297" spans="1:24">
       <c r="A297" s="5" t="s">
         <v>769</v>
       </c>
@@ -8330,8 +12422,22 @@
       <c r="E297" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="298" spans="1:6">
+      <c r="K297"/>
+      <c r="L297"/>
+      <c r="M297"/>
+      <c r="N297"/>
+      <c r="O297"/>
+      <c r="P297"/>
+      <c r="Q297"/>
+      <c r="R297"/>
+      <c r="S297"/>
+      <c r="T297"/>
+      <c r="U297"/>
+      <c r="V297"/>
+      <c r="W297"/>
+      <c r="X297"/>
+    </row>
+    <row r="298" spans="1:24">
       <c r="A298" s="5" t="s">
         <v>770</v>
       </c>
@@ -8347,8 +12453,22 @@
       <c r="E298" s="7" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="299" spans="1:6">
+      <c r="K298"/>
+      <c r="L298"/>
+      <c r="M298"/>
+      <c r="N298"/>
+      <c r="O298"/>
+      <c r="P298"/>
+      <c r="Q298"/>
+      <c r="R298"/>
+      <c r="S298"/>
+      <c r="T298"/>
+      <c r="U298"/>
+      <c r="V298"/>
+      <c r="W298"/>
+      <c r="X298"/>
+    </row>
+    <row r="299" spans="1:24">
       <c r="A299" s="5" t="s">
         <v>771</v>
       </c>
@@ -8367,8 +12487,22 @@
       <c r="F299" s="7" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="300" spans="1:6">
+      <c r="K299"/>
+      <c r="L299"/>
+      <c r="M299"/>
+      <c r="N299"/>
+      <c r="O299"/>
+      <c r="P299"/>
+      <c r="Q299"/>
+      <c r="R299"/>
+      <c r="S299"/>
+      <c r="T299"/>
+      <c r="U299"/>
+      <c r="V299"/>
+      <c r="W299"/>
+      <c r="X299"/>
+    </row>
+    <row r="300" spans="1:24">
       <c r="A300" s="5" t="s">
         <v>773</v>
       </c>
@@ -8387,8 +12521,22 @@
       <c r="F300" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="301" spans="1:6">
+      <c r="K300"/>
+      <c r="L300"/>
+      <c r="M300"/>
+      <c r="N300"/>
+      <c r="O300"/>
+      <c r="P300"/>
+      <c r="Q300"/>
+      <c r="R300"/>
+      <c r="S300"/>
+      <c r="T300"/>
+      <c r="U300"/>
+      <c r="V300"/>
+      <c r="W300"/>
+      <c r="X300"/>
+    </row>
+    <row r="301" spans="1:24">
       <c r="A301" s="5" t="s">
         <v>774</v>
       </c>
@@ -8401,8 +12549,22 @@
       <c r="D301" s="7" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="302" spans="1:6">
+      <c r="K301"/>
+      <c r="L301"/>
+      <c r="M301"/>
+      <c r="N301"/>
+      <c r="O301"/>
+      <c r="P301"/>
+      <c r="Q301"/>
+      <c r="R301"/>
+      <c r="S301"/>
+      <c r="T301"/>
+      <c r="U301"/>
+      <c r="V301"/>
+      <c r="W301"/>
+      <c r="X301"/>
+    </row>
+    <row r="302" spans="1:24">
       <c r="A302" s="5" t="s">
         <v>775</v>
       </c>
@@ -8415,8 +12577,22 @@
       <c r="D302" s="7" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="303" spans="1:6">
+      <c r="K302"/>
+      <c r="L302"/>
+      <c r="M302"/>
+      <c r="N302"/>
+      <c r="O302"/>
+      <c r="P302"/>
+      <c r="Q302"/>
+      <c r="R302"/>
+      <c r="S302"/>
+      <c r="T302"/>
+      <c r="U302"/>
+      <c r="V302"/>
+      <c r="W302"/>
+      <c r="X302"/>
+    </row>
+    <row r="303" spans="1:24">
       <c r="A303" s="5" t="s">
         <v>776</v>
       </c>
@@ -8432,8 +12608,22 @@
       <c r="E303" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="304" spans="1:6">
+      <c r="K303"/>
+      <c r="L303"/>
+      <c r="M303"/>
+      <c r="N303"/>
+      <c r="O303"/>
+      <c r="P303"/>
+      <c r="Q303"/>
+      <c r="R303"/>
+      <c r="S303"/>
+      <c r="T303"/>
+      <c r="U303"/>
+      <c r="V303"/>
+      <c r="W303"/>
+      <c r="X303"/>
+    </row>
+    <row r="304" spans="1:24">
       <c r="A304" s="5" t="s">
         <v>777</v>
       </c>
@@ -8452,8 +12642,22 @@
       <c r="F304" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="305" spans="1:6">
+      <c r="K304"/>
+      <c r="L304"/>
+      <c r="M304"/>
+      <c r="N304"/>
+      <c r="O304"/>
+      <c r="P304"/>
+      <c r="Q304"/>
+      <c r="R304"/>
+      <c r="S304"/>
+      <c r="T304"/>
+      <c r="U304"/>
+      <c r="V304"/>
+      <c r="W304"/>
+      <c r="X304"/>
+    </row>
+    <row r="305" spans="1:24">
       <c r="A305" s="5" t="s">
         <v>778</v>
       </c>
@@ -8472,8 +12676,22 @@
       <c r="F305" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="306" spans="1:6">
+      <c r="K305"/>
+      <c r="L305"/>
+      <c r="M305"/>
+      <c r="N305"/>
+      <c r="O305"/>
+      <c r="P305"/>
+      <c r="Q305"/>
+      <c r="R305"/>
+      <c r="S305"/>
+      <c r="T305"/>
+      <c r="U305"/>
+      <c r="V305"/>
+      <c r="W305"/>
+      <c r="X305"/>
+    </row>
+    <row r="306" spans="1:24">
       <c r="A306" s="5" t="s">
         <v>779</v>
       </c>
@@ -8489,8 +12707,22 @@
       <c r="E306" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="307" spans="1:6">
+      <c r="K306"/>
+      <c r="L306"/>
+      <c r="M306"/>
+      <c r="N306"/>
+      <c r="O306"/>
+      <c r="P306"/>
+      <c r="Q306"/>
+      <c r="R306"/>
+      <c r="S306"/>
+      <c r="T306"/>
+      <c r="U306"/>
+      <c r="V306"/>
+      <c r="W306"/>
+      <c r="X306"/>
+    </row>
+    <row r="307" spans="1:24">
       <c r="A307" s="5" t="s">
         <v>781</v>
       </c>
@@ -8506,8 +12738,22 @@
       <c r="E307" s="7" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="308" spans="1:6">
+      <c r="K307"/>
+      <c r="L307"/>
+      <c r="M307"/>
+      <c r="N307"/>
+      <c r="O307"/>
+      <c r="P307"/>
+      <c r="Q307"/>
+      <c r="R307"/>
+      <c r="S307"/>
+      <c r="T307"/>
+      <c r="U307"/>
+      <c r="V307"/>
+      <c r="W307"/>
+      <c r="X307"/>
+    </row>
+    <row r="308" spans="1:24">
       <c r="A308" s="5" t="s">
         <v>784</v>
       </c>
@@ -8523,8 +12769,22 @@
       <c r="E308" s="7" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="309" spans="1:6">
+      <c r="K308"/>
+      <c r="L308"/>
+      <c r="M308"/>
+      <c r="N308"/>
+      <c r="O308"/>
+      <c r="P308"/>
+      <c r="Q308"/>
+      <c r="R308"/>
+      <c r="S308"/>
+      <c r="T308"/>
+      <c r="U308"/>
+      <c r="V308"/>
+      <c r="W308"/>
+      <c r="X308"/>
+    </row>
+    <row r="309" spans="1:24">
       <c r="A309" s="5" t="s">
         <v>787</v>
       </c>
@@ -8543,8 +12803,22 @@
       <c r="F309" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="310" spans="1:6">
+      <c r="K309"/>
+      <c r="L309"/>
+      <c r="M309"/>
+      <c r="N309"/>
+      <c r="O309"/>
+      <c r="P309"/>
+      <c r="Q309"/>
+      <c r="R309"/>
+      <c r="S309"/>
+      <c r="T309"/>
+      <c r="U309"/>
+      <c r="V309"/>
+      <c r="W309"/>
+      <c r="X309"/>
+    </row>
+    <row r="310" spans="1:24">
       <c r="A310" s="5" t="s">
         <v>788</v>
       </c>
@@ -8560,8 +12834,22 @@
       <c r="E310" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="311" spans="1:6">
+      <c r="K310"/>
+      <c r="L310"/>
+      <c r="M310"/>
+      <c r="N310"/>
+      <c r="O310"/>
+      <c r="P310"/>
+      <c r="Q310"/>
+      <c r="R310"/>
+      <c r="S310"/>
+      <c r="T310"/>
+      <c r="U310"/>
+      <c r="V310"/>
+      <c r="W310"/>
+      <c r="X310"/>
+    </row>
+    <row r="311" spans="1:24">
       <c r="A311" s="5" t="s">
         <v>790</v>
       </c>
@@ -8574,8 +12862,22 @@
       <c r="D311" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="312" spans="1:6">
+      <c r="K311"/>
+      <c r="L311"/>
+      <c r="M311"/>
+      <c r="N311"/>
+      <c r="O311"/>
+      <c r="P311"/>
+      <c r="Q311"/>
+      <c r="R311"/>
+      <c r="S311"/>
+      <c r="T311"/>
+      <c r="U311"/>
+      <c r="V311"/>
+      <c r="W311"/>
+      <c r="X311"/>
+    </row>
+    <row r="312" spans="1:24">
       <c r="A312" s="5" t="s">
         <v>791</v>
       </c>
@@ -8591,8 +12893,22 @@
       <c r="E312" s="7" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="313" spans="1:6">
+      <c r="K312"/>
+      <c r="L312"/>
+      <c r="M312"/>
+      <c r="N312"/>
+      <c r="O312"/>
+      <c r="P312"/>
+      <c r="Q312"/>
+      <c r="R312"/>
+      <c r="S312"/>
+      <c r="T312"/>
+      <c r="U312"/>
+      <c r="V312"/>
+      <c r="W312"/>
+      <c r="X312"/>
+    </row>
+    <row r="313" spans="1:24">
       <c r="A313" s="5" t="s">
         <v>794</v>
       </c>
@@ -8605,8 +12921,22 @@
       <c r="D313" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="314" spans="1:6">
+      <c r="K313"/>
+      <c r="L313"/>
+      <c r="M313"/>
+      <c r="N313"/>
+      <c r="O313"/>
+      <c r="P313"/>
+      <c r="Q313"/>
+      <c r="R313"/>
+      <c r="S313"/>
+      <c r="T313"/>
+      <c r="U313"/>
+      <c r="V313"/>
+      <c r="W313"/>
+      <c r="X313"/>
+    </row>
+    <row r="314" spans="1:24">
       <c r="A314" s="5" t="s">
         <v>795</v>
       </c>
@@ -8625,8 +12955,22 @@
       <c r="F314" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="315" spans="1:6">
+      <c r="K314"/>
+      <c r="L314"/>
+      <c r="M314"/>
+      <c r="N314"/>
+      <c r="O314"/>
+      <c r="P314"/>
+      <c r="Q314"/>
+      <c r="R314"/>
+      <c r="S314"/>
+      <c r="T314"/>
+      <c r="U314"/>
+      <c r="V314"/>
+      <c r="W314"/>
+      <c r="X314"/>
+    </row>
+    <row r="315" spans="1:24">
       <c r="A315" s="5" t="s">
         <v>796</v>
       </c>
@@ -8642,8 +12986,22 @@
       <c r="E315" s="7" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="316" spans="1:6">
+      <c r="K315"/>
+      <c r="L315"/>
+      <c r="M315"/>
+      <c r="N315"/>
+      <c r="O315"/>
+      <c r="P315"/>
+      <c r="Q315"/>
+      <c r="R315"/>
+      <c r="S315"/>
+      <c r="T315"/>
+      <c r="U315"/>
+      <c r="V315"/>
+      <c r="W315"/>
+      <c r="X315"/>
+    </row>
+    <row r="316" spans="1:24">
       <c r="A316" s="5" t="s">
         <v>798</v>
       </c>
@@ -8659,8 +13017,22 @@
       <c r="E316" s="7" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="317" spans="1:6">
+      <c r="K316"/>
+      <c r="L316"/>
+      <c r="M316"/>
+      <c r="N316"/>
+      <c r="O316"/>
+      <c r="P316"/>
+      <c r="Q316"/>
+      <c r="R316"/>
+      <c r="S316"/>
+      <c r="T316"/>
+      <c r="U316"/>
+      <c r="V316"/>
+      <c r="W316"/>
+      <c r="X316"/>
+    </row>
+    <row r="317" spans="1:24">
       <c r="A317" s="5" t="s">
         <v>802</v>
       </c>
@@ -8676,8 +13048,22 @@
       <c r="E317" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="318" spans="1:6">
+      <c r="K317"/>
+      <c r="L317"/>
+      <c r="M317"/>
+      <c r="N317"/>
+      <c r="O317"/>
+      <c r="P317"/>
+      <c r="Q317"/>
+      <c r="R317"/>
+      <c r="S317"/>
+      <c r="T317"/>
+      <c r="U317"/>
+      <c r="V317"/>
+      <c r="W317"/>
+      <c r="X317"/>
+    </row>
+    <row r="318" spans="1:24">
       <c r="A318" s="5" t="s">
         <v>803</v>
       </c>
@@ -8693,8 +13079,22 @@
       <c r="E318" s="7" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="319" spans="1:6">
+      <c r="K318"/>
+      <c r="L318"/>
+      <c r="M318"/>
+      <c r="N318"/>
+      <c r="O318"/>
+      <c r="P318"/>
+      <c r="Q318"/>
+      <c r="R318"/>
+      <c r="S318"/>
+      <c r="T318"/>
+      <c r="U318"/>
+      <c r="V318"/>
+      <c r="W318"/>
+      <c r="X318"/>
+    </row>
+    <row r="319" spans="1:24">
       <c r="A319" s="5" t="s">
         <v>807</v>
       </c>
@@ -8713,8 +13113,22 @@
       <c r="F319" s="7" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="320" spans="1:6">
+      <c r="K319"/>
+      <c r="L319"/>
+      <c r="M319"/>
+      <c r="N319"/>
+      <c r="O319"/>
+      <c r="P319"/>
+      <c r="Q319"/>
+      <c r="R319"/>
+      <c r="S319"/>
+      <c r="T319"/>
+      <c r="U319"/>
+      <c r="V319"/>
+      <c r="W319"/>
+      <c r="X319"/>
+    </row>
+    <row r="320" spans="1:24">
       <c r="A320" s="5" t="s">
         <v>808</v>
       </c>
@@ -8733,8 +13147,22 @@
       <c r="F320" s="7" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="321" spans="1:8">
+      <c r="K320"/>
+      <c r="L320"/>
+      <c r="M320"/>
+      <c r="N320"/>
+      <c r="O320"/>
+      <c r="P320"/>
+      <c r="Q320"/>
+      <c r="R320"/>
+      <c r="S320"/>
+      <c r="T320"/>
+      <c r="U320"/>
+      <c r="V320"/>
+      <c r="W320"/>
+      <c r="X320"/>
+    </row>
+    <row r="321" spans="1:24">
       <c r="A321" s="5" t="s">
         <v>810</v>
       </c>
@@ -8750,8 +13178,22 @@
       <c r="E321" s="7" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="322" spans="1:8">
+      <c r="K321"/>
+      <c r="L321"/>
+      <c r="M321"/>
+      <c r="N321"/>
+      <c r="O321"/>
+      <c r="P321"/>
+      <c r="Q321"/>
+      <c r="R321"/>
+      <c r="S321"/>
+      <c r="T321"/>
+      <c r="U321"/>
+      <c r="V321"/>
+      <c r="W321"/>
+      <c r="X321"/>
+    </row>
+    <row r="322" spans="1:24">
       <c r="A322" s="5" t="s">
         <v>811</v>
       </c>
@@ -8767,8 +13209,22 @@
       <c r="E322" s="7" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="323" spans="1:8">
+      <c r="K322"/>
+      <c r="L322"/>
+      <c r="M322"/>
+      <c r="N322"/>
+      <c r="O322"/>
+      <c r="P322"/>
+      <c r="Q322"/>
+      <c r="R322"/>
+      <c r="S322"/>
+      <c r="T322"/>
+      <c r="U322"/>
+      <c r="V322"/>
+      <c r="W322"/>
+      <c r="X322"/>
+    </row>
+    <row r="323" spans="1:24">
       <c r="A323" s="5" t="s">
         <v>813</v>
       </c>
@@ -8784,8 +13240,22 @@
       <c r="E323" s="7" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="324" spans="1:8">
+      <c r="K323"/>
+      <c r="L323"/>
+      <c r="M323"/>
+      <c r="N323"/>
+      <c r="O323"/>
+      <c r="P323"/>
+      <c r="Q323"/>
+      <c r="R323"/>
+      <c r="S323"/>
+      <c r="T323"/>
+      <c r="U323"/>
+      <c r="V323"/>
+      <c r="W323"/>
+      <c r="X323"/>
+    </row>
+    <row r="324" spans="1:24">
       <c r="A324" s="5" t="s">
         <v>814</v>
       </c>
@@ -8804,8 +13274,22 @@
       <c r="F324" s="7" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="325" spans="1:8">
+      <c r="K324"/>
+      <c r="L324"/>
+      <c r="M324"/>
+      <c r="N324"/>
+      <c r="O324"/>
+      <c r="P324"/>
+      <c r="Q324"/>
+      <c r="R324"/>
+      <c r="S324"/>
+      <c r="T324"/>
+      <c r="U324"/>
+      <c r="V324"/>
+      <c r="W324"/>
+      <c r="X324"/>
+    </row>
+    <row r="325" spans="1:24">
       <c r="A325" s="5" t="s">
         <v>817</v>
       </c>
@@ -8821,8 +13305,22 @@
       <c r="E325" s="7" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="326" spans="1:8">
+      <c r="K325"/>
+      <c r="L325"/>
+      <c r="M325"/>
+      <c r="N325"/>
+      <c r="O325"/>
+      <c r="P325"/>
+      <c r="Q325"/>
+      <c r="R325"/>
+      <c r="S325"/>
+      <c r="T325"/>
+      <c r="U325"/>
+      <c r="V325"/>
+      <c r="W325"/>
+      <c r="X325"/>
+    </row>
+    <row r="326" spans="1:24">
       <c r="A326" s="5" t="s">
         <v>821</v>
       </c>
@@ -8838,8 +13336,22 @@
       <c r="E326" s="7" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="327" spans="1:8">
+      <c r="K326"/>
+      <c r="L326"/>
+      <c r="M326"/>
+      <c r="N326"/>
+      <c r="O326"/>
+      <c r="P326"/>
+      <c r="Q326"/>
+      <c r="R326"/>
+      <c r="S326"/>
+      <c r="T326"/>
+      <c r="U326"/>
+      <c r="V326"/>
+      <c r="W326"/>
+      <c r="X326"/>
+    </row>
+    <row r="327" spans="1:24">
       <c r="A327" s="5" t="s">
         <v>824</v>
       </c>
@@ -8855,8 +13367,22 @@
       <c r="E327" s="7" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="328" spans="1:8">
+      <c r="K327"/>
+      <c r="L327"/>
+      <c r="M327"/>
+      <c r="N327"/>
+      <c r="O327"/>
+      <c r="P327"/>
+      <c r="Q327"/>
+      <c r="R327"/>
+      <c r="S327"/>
+      <c r="T327"/>
+      <c r="U327"/>
+      <c r="V327"/>
+      <c r="W327"/>
+      <c r="X327"/>
+    </row>
+    <row r="328" spans="1:24">
       <c r="A328" s="5" t="s">
         <v>827</v>
       </c>
@@ -8872,8 +13398,22 @@
       <c r="E328" s="7" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="329" spans="1:8">
+      <c r="K328"/>
+      <c r="L328"/>
+      <c r="M328"/>
+      <c r="N328"/>
+      <c r="O328"/>
+      <c r="P328"/>
+      <c r="Q328"/>
+      <c r="R328"/>
+      <c r="S328"/>
+      <c r="T328"/>
+      <c r="U328"/>
+      <c r="V328"/>
+      <c r="W328"/>
+      <c r="X328"/>
+    </row>
+    <row r="329" spans="1:24">
       <c r="A329" s="17" t="s">
         <v>830</v>
       </c>
@@ -8895,13 +13435,713 @@
       <c r="G329" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="332" spans="1:8">
+      <c r="K329"/>
+      <c r="L329"/>
+      <c r="M329"/>
+      <c r="N329"/>
+      <c r="O329"/>
+      <c r="P329"/>
+      <c r="Q329"/>
+      <c r="R329"/>
+      <c r="S329"/>
+      <c r="T329"/>
+      <c r="U329"/>
+      <c r="V329"/>
+      <c r="W329"/>
+      <c r="X329"/>
+    </row>
+    <row r="330" spans="1:24">
+      <c r="K330"/>
+      <c r="L330"/>
+      <c r="M330"/>
+      <c r="N330"/>
+      <c r="O330"/>
+      <c r="P330"/>
+      <c r="Q330"/>
+      <c r="R330"/>
+      <c r="S330"/>
+      <c r="T330"/>
+      <c r="U330"/>
+      <c r="V330"/>
+      <c r="W330"/>
+      <c r="X330"/>
+    </row>
+    <row r="331" spans="1:24">
+      <c r="K331"/>
+      <c r="L331"/>
+      <c r="M331"/>
+      <c r="N331"/>
+      <c r="O331"/>
+      <c r="P331"/>
+      <c r="Q331"/>
+      <c r="R331"/>
+      <c r="S331"/>
+      <c r="T331"/>
+      <c r="U331"/>
+      <c r="V331"/>
+      <c r="W331"/>
+      <c r="X331"/>
+    </row>
+    <row r="332" spans="1:24">
       <c r="D332"/>
       <c r="E332"/>
       <c r="F332"/>
       <c r="G332"/>
       <c r="H332"/>
+      <c r="K332"/>
+      <c r="L332"/>
+      <c r="M332"/>
+      <c r="N332"/>
+      <c r="O332"/>
+      <c r="P332"/>
+      <c r="Q332"/>
+      <c r="R332"/>
+      <c r="S332"/>
+      <c r="T332"/>
+      <c r="U332"/>
+      <c r="V332"/>
+      <c r="W332"/>
+      <c r="X332"/>
+    </row>
+    <row r="333" spans="1:24">
+      <c r="K333"/>
+      <c r="L333"/>
+      <c r="M333"/>
+      <c r="N333"/>
+      <c r="O333"/>
+      <c r="P333"/>
+      <c r="Q333"/>
+      <c r="R333"/>
+      <c r="S333"/>
+      <c r="T333"/>
+      <c r="U333"/>
+      <c r="V333"/>
+      <c r="W333"/>
+      <c r="X333"/>
+    </row>
+    <row r="334" spans="1:24">
+      <c r="K334"/>
+      <c r="L334"/>
+      <c r="M334"/>
+      <c r="N334"/>
+      <c r="O334"/>
+      <c r="P334"/>
+      <c r="Q334"/>
+      <c r="R334"/>
+      <c r="S334"/>
+      <c r="T334"/>
+      <c r="U334"/>
+      <c r="V334"/>
+      <c r="W334"/>
+      <c r="X334"/>
+    </row>
+    <row r="335" spans="1:24">
+      <c r="K335"/>
+      <c r="L335"/>
+      <c r="M335"/>
+      <c r="N335"/>
+      <c r="O335"/>
+      <c r="P335"/>
+      <c r="Q335"/>
+      <c r="R335"/>
+      <c r="S335"/>
+      <c r="T335"/>
+      <c r="U335"/>
+      <c r="V335"/>
+      <c r="W335"/>
+      <c r="X335"/>
+    </row>
+    <row r="336" spans="1:24">
+      <c r="K336"/>
+      <c r="L336"/>
+      <c r="M336"/>
+      <c r="N336"/>
+      <c r="O336"/>
+      <c r="P336"/>
+      <c r="Q336"/>
+      <c r="R336"/>
+      <c r="S336"/>
+      <c r="T336"/>
+      <c r="U336"/>
+      <c r="V336"/>
+      <c r="W336"/>
+      <c r="X336"/>
+    </row>
+    <row r="337" spans="11:24">
+      <c r="K337"/>
+      <c r="L337"/>
+      <c r="M337"/>
+      <c r="N337"/>
+      <c r="O337"/>
+      <c r="P337"/>
+      <c r="Q337"/>
+      <c r="R337"/>
+      <c r="S337"/>
+      <c r="T337"/>
+      <c r="U337"/>
+      <c r="V337"/>
+      <c r="W337"/>
+      <c r="X337"/>
+    </row>
+    <row r="338" spans="11:24">
+      <c r="K338"/>
+      <c r="L338"/>
+      <c r="M338"/>
+      <c r="N338"/>
+      <c r="O338"/>
+      <c r="P338"/>
+      <c r="Q338"/>
+      <c r="R338"/>
+      <c r="S338"/>
+      <c r="T338"/>
+      <c r="U338"/>
+      <c r="V338"/>
+      <c r="W338"/>
+      <c r="X338"/>
+    </row>
+    <row r="339" spans="11:24">
+      <c r="K339"/>
+      <c r="L339"/>
+      <c r="M339"/>
+      <c r="N339"/>
+      <c r="O339"/>
+      <c r="P339"/>
+      <c r="Q339"/>
+      <c r="R339"/>
+      <c r="S339"/>
+      <c r="T339"/>
+      <c r="U339"/>
+      <c r="V339"/>
+      <c r="W339"/>
+      <c r="X339"/>
+    </row>
+    <row r="340" spans="11:24">
+      <c r="K340"/>
+      <c r="L340"/>
+      <c r="M340"/>
+      <c r="N340"/>
+      <c r="O340"/>
+      <c r="P340"/>
+      <c r="Q340"/>
+      <c r="R340"/>
+      <c r="S340"/>
+      <c r="T340"/>
+      <c r="U340"/>
+      <c r="V340"/>
+      <c r="W340"/>
+      <c r="X340"/>
+    </row>
+    <row r="341" spans="11:24">
+      <c r="K341"/>
+      <c r="L341"/>
+      <c r="M341"/>
+      <c r="N341"/>
+      <c r="O341"/>
+      <c r="P341"/>
+      <c r="Q341"/>
+      <c r="R341"/>
+      <c r="S341"/>
+      <c r="T341"/>
+      <c r="U341"/>
+      <c r="V341"/>
+      <c r="W341"/>
+      <c r="X341"/>
+    </row>
+    <row r="342" spans="11:24">
+      <c r="K342"/>
+      <c r="L342"/>
+      <c r="M342"/>
+      <c r="N342"/>
+      <c r="O342"/>
+      <c r="P342"/>
+      <c r="Q342"/>
+      <c r="R342"/>
+      <c r="S342"/>
+      <c r="T342"/>
+      <c r="U342"/>
+      <c r="V342"/>
+      <c r="W342"/>
+      <c r="X342"/>
+    </row>
+    <row r="343" spans="11:24">
+      <c r="K343"/>
+      <c r="L343"/>
+      <c r="M343"/>
+      <c r="N343"/>
+      <c r="O343"/>
+      <c r="P343"/>
+      <c r="Q343"/>
+      <c r="R343"/>
+      <c r="S343"/>
+      <c r="T343"/>
+      <c r="U343"/>
+      <c r="V343"/>
+      <c r="W343"/>
+      <c r="X343"/>
+    </row>
+    <row r="344" spans="11:24">
+      <c r="K344"/>
+      <c r="L344"/>
+      <c r="M344"/>
+      <c r="N344"/>
+      <c r="O344"/>
+      <c r="P344"/>
+      <c r="Q344"/>
+      <c r="R344"/>
+      <c r="S344"/>
+      <c r="T344"/>
+      <c r="U344"/>
+      <c r="V344"/>
+      <c r="W344"/>
+      <c r="X344"/>
+    </row>
+    <row r="345" spans="11:24">
+      <c r="K345"/>
+      <c r="L345"/>
+      <c r="M345"/>
+      <c r="N345"/>
+      <c r="O345"/>
+      <c r="P345"/>
+      <c r="Q345"/>
+      <c r="R345"/>
+      <c r="S345"/>
+      <c r="T345"/>
+      <c r="U345"/>
+      <c r="V345"/>
+      <c r="W345"/>
+      <c r="X345"/>
+    </row>
+    <row r="346" spans="11:24">
+      <c r="K346"/>
+      <c r="L346"/>
+      <c r="M346"/>
+      <c r="N346"/>
+      <c r="O346"/>
+      <c r="P346"/>
+      <c r="Q346"/>
+      <c r="R346"/>
+      <c r="S346"/>
+      <c r="T346"/>
+      <c r="U346"/>
+      <c r="V346"/>
+      <c r="W346"/>
+      <c r="X346"/>
+    </row>
+    <row r="347" spans="11:24">
+      <c r="K347"/>
+      <c r="L347"/>
+      <c r="M347"/>
+      <c r="N347"/>
+      <c r="O347"/>
+      <c r="P347"/>
+      <c r="Q347"/>
+      <c r="R347"/>
+      <c r="S347"/>
+      <c r="T347"/>
+      <c r="U347"/>
+      <c r="V347"/>
+      <c r="W347"/>
+      <c r="X347"/>
+    </row>
+    <row r="348" spans="11:24">
+      <c r="K348"/>
+      <c r="L348"/>
+      <c r="M348"/>
+      <c r="N348"/>
+      <c r="O348"/>
+      <c r="P348"/>
+      <c r="Q348"/>
+      <c r="R348"/>
+      <c r="S348"/>
+      <c r="T348"/>
+      <c r="U348"/>
+      <c r="V348"/>
+      <c r="W348"/>
+      <c r="X348"/>
+    </row>
+    <row r="349" spans="11:24">
+      <c r="K349"/>
+      <c r="L349"/>
+      <c r="M349"/>
+      <c r="N349"/>
+      <c r="O349"/>
+      <c r="P349"/>
+      <c r="Q349"/>
+      <c r="R349"/>
+      <c r="S349"/>
+      <c r="T349"/>
+      <c r="U349"/>
+      <c r="V349"/>
+      <c r="W349"/>
+      <c r="X349"/>
+    </row>
+    <row r="350" spans="11:24">
+      <c r="K350"/>
+      <c r="L350"/>
+      <c r="M350"/>
+      <c r="N350"/>
+      <c r="O350"/>
+      <c r="P350"/>
+      <c r="Q350"/>
+      <c r="R350"/>
+      <c r="S350"/>
+      <c r="T350"/>
+      <c r="U350"/>
+      <c r="V350"/>
+      <c r="W350"/>
+      <c r="X350"/>
+    </row>
+    <row r="351" spans="11:24">
+      <c r="K351"/>
+      <c r="L351"/>
+      <c r="M351"/>
+      <c r="N351"/>
+      <c r="O351"/>
+      <c r="P351"/>
+      <c r="Q351"/>
+      <c r="R351"/>
+      <c r="S351"/>
+      <c r="T351"/>
+      <c r="U351"/>
+      <c r="V351"/>
+      <c r="W351"/>
+      <c r="X351"/>
+    </row>
+    <row r="352" spans="11:24">
+      <c r="K352"/>
+      <c r="L352"/>
+      <c r="M352"/>
+      <c r="N352"/>
+      <c r="O352"/>
+      <c r="P352"/>
+      <c r="Q352"/>
+      <c r="R352"/>
+      <c r="S352"/>
+      <c r="T352"/>
+      <c r="U352"/>
+      <c r="V352"/>
+      <c r="W352"/>
+      <c r="X352"/>
+    </row>
+    <row r="353" spans="11:24">
+      <c r="K353"/>
+      <c r="L353"/>
+      <c r="M353"/>
+      <c r="N353"/>
+      <c r="O353"/>
+      <c r="P353"/>
+      <c r="Q353"/>
+      <c r="R353"/>
+      <c r="S353"/>
+      <c r="T353"/>
+      <c r="U353"/>
+      <c r="V353"/>
+      <c r="W353"/>
+      <c r="X353"/>
+    </row>
+    <row r="354" spans="11:24">
+      <c r="K354"/>
+      <c r="L354"/>
+      <c r="M354"/>
+      <c r="N354"/>
+      <c r="O354"/>
+      <c r="P354"/>
+      <c r="Q354"/>
+      <c r="R354"/>
+      <c r="S354"/>
+      <c r="T354"/>
+      <c r="U354"/>
+      <c r="V354"/>
+      <c r="W354"/>
+      <c r="X354"/>
+    </row>
+    <row r="355" spans="11:24">
+      <c r="K355"/>
+      <c r="L355"/>
+      <c r="M355"/>
+      <c r="N355"/>
+      <c r="O355"/>
+      <c r="P355"/>
+      <c r="Q355"/>
+      <c r="R355"/>
+      <c r="S355"/>
+      <c r="T355"/>
+      <c r="U355"/>
+      <c r="V355"/>
+      <c r="W355"/>
+      <c r="X355"/>
+    </row>
+    <row r="356" spans="11:24">
+      <c r="K356"/>
+      <c r="L356"/>
+      <c r="M356"/>
+      <c r="N356"/>
+      <c r="O356"/>
+      <c r="P356"/>
+      <c r="Q356"/>
+      <c r="R356"/>
+      <c r="S356"/>
+      <c r="T356"/>
+      <c r="U356"/>
+      <c r="V356"/>
+      <c r="W356"/>
+      <c r="X356"/>
+    </row>
+    <row r="357" spans="11:24">
+      <c r="K357"/>
+      <c r="L357"/>
+      <c r="M357"/>
+      <c r="N357"/>
+      <c r="O357"/>
+      <c r="P357"/>
+      <c r="Q357"/>
+      <c r="R357"/>
+      <c r="S357"/>
+      <c r="T357"/>
+      <c r="U357"/>
+      <c r="V357"/>
+      <c r="W357"/>
+      <c r="X357"/>
+    </row>
+    <row r="358" spans="11:24">
+      <c r="K358"/>
+      <c r="L358"/>
+      <c r="M358"/>
+      <c r="N358"/>
+      <c r="O358"/>
+      <c r="P358"/>
+      <c r="Q358"/>
+      <c r="R358"/>
+      <c r="S358"/>
+      <c r="T358"/>
+      <c r="U358"/>
+      <c r="V358"/>
+      <c r="W358"/>
+      <c r="X358"/>
+    </row>
+    <row r="359" spans="11:24">
+      <c r="K359"/>
+      <c r="L359"/>
+      <c r="M359"/>
+      <c r="N359"/>
+      <c r="O359"/>
+      <c r="P359"/>
+      <c r="Q359"/>
+      <c r="R359"/>
+      <c r="S359"/>
+      <c r="T359"/>
+      <c r="U359"/>
+      <c r="V359"/>
+      <c r="W359"/>
+      <c r="X359"/>
+    </row>
+    <row r="360" spans="11:24">
+      <c r="K360"/>
+      <c r="L360"/>
+      <c r="M360"/>
+      <c r="N360"/>
+      <c r="O360"/>
+      <c r="P360"/>
+      <c r="Q360"/>
+      <c r="R360"/>
+      <c r="S360"/>
+      <c r="T360"/>
+      <c r="U360"/>
+      <c r="V360"/>
+      <c r="W360"/>
+      <c r="X360"/>
+    </row>
+    <row r="361" spans="11:24">
+      <c r="K361"/>
+      <c r="L361"/>
+      <c r="M361"/>
+      <c r="N361"/>
+      <c r="O361"/>
+      <c r="P361"/>
+      <c r="Q361"/>
+      <c r="R361"/>
+      <c r="S361"/>
+      <c r="T361"/>
+      <c r="U361"/>
+      <c r="V361"/>
+      <c r="W361"/>
+      <c r="X361"/>
+    </row>
+    <row r="362" spans="11:24">
+      <c r="K362"/>
+      <c r="L362"/>
+      <c r="M362"/>
+      <c r="N362"/>
+      <c r="O362"/>
+      <c r="P362"/>
+      <c r="Q362"/>
+      <c r="R362"/>
+      <c r="S362"/>
+      <c r="T362"/>
+      <c r="U362"/>
+      <c r="V362"/>
+      <c r="W362"/>
+      <c r="X362"/>
+    </row>
+    <row r="363" spans="11:24">
+      <c r="K363"/>
+      <c r="L363"/>
+      <c r="M363"/>
+      <c r="N363"/>
+      <c r="O363"/>
+      <c r="P363"/>
+      <c r="Q363"/>
+      <c r="R363"/>
+      <c r="S363"/>
+      <c r="T363"/>
+      <c r="U363"/>
+      <c r="V363"/>
+      <c r="W363"/>
+      <c r="X363"/>
+    </row>
+    <row r="364" spans="11:24">
+      <c r="K364"/>
+      <c r="L364"/>
+      <c r="M364"/>
+      <c r="N364"/>
+      <c r="O364"/>
+      <c r="P364"/>
+      <c r="Q364"/>
+      <c r="R364"/>
+      <c r="S364"/>
+      <c r="T364"/>
+      <c r="U364"/>
+      <c r="V364"/>
+      <c r="W364"/>
+      <c r="X364"/>
+    </row>
+    <row r="365" spans="11:24">
+      <c r="K365"/>
+      <c r="L365"/>
+      <c r="M365"/>
+      <c r="N365"/>
+      <c r="O365"/>
+      <c r="P365"/>
+      <c r="Q365"/>
+      <c r="R365"/>
+      <c r="S365"/>
+      <c r="T365"/>
+      <c r="U365"/>
+      <c r="V365"/>
+      <c r="W365"/>
+      <c r="X365"/>
+    </row>
+    <row r="366" spans="11:24">
+      <c r="K366"/>
+      <c r="L366"/>
+      <c r="M366"/>
+      <c r="N366"/>
+      <c r="O366"/>
+      <c r="P366"/>
+      <c r="Q366"/>
+      <c r="R366"/>
+      <c r="S366"/>
+      <c r="T366"/>
+      <c r="U366"/>
+      <c r="V366"/>
+      <c r="W366"/>
+      <c r="X366"/>
+    </row>
+    <row r="367" spans="11:24">
+      <c r="K367"/>
+      <c r="L367"/>
+      <c r="M367"/>
+      <c r="N367"/>
+      <c r="O367"/>
+      <c r="P367"/>
+      <c r="Q367"/>
+      <c r="R367"/>
+      <c r="S367"/>
+      <c r="T367"/>
+      <c r="U367"/>
+      <c r="V367"/>
+      <c r="W367"/>
+      <c r="X367"/>
+    </row>
+    <row r="368" spans="11:24">
+      <c r="K368"/>
+      <c r="L368"/>
+      <c r="M368"/>
+      <c r="N368"/>
+      <c r="O368"/>
+      <c r="P368"/>
+      <c r="Q368"/>
+      <c r="R368"/>
+      <c r="S368"/>
+      <c r="T368"/>
+      <c r="U368"/>
+      <c r="V368"/>
+      <c r="W368"/>
+      <c r="X368"/>
+    </row>
+    <row r="369" spans="11:24">
+      <c r="K369"/>
+      <c r="L369"/>
+      <c r="M369"/>
+      <c r="N369"/>
+      <c r="O369"/>
+      <c r="P369"/>
+      <c r="Q369"/>
+      <c r="R369"/>
+      <c r="S369"/>
+      <c r="T369"/>
+      <c r="U369"/>
+      <c r="V369"/>
+      <c r="W369"/>
+      <c r="X369"/>
+    </row>
+    <row r="370" spans="11:24">
+      <c r="K370"/>
+      <c r="L370"/>
+      <c r="M370"/>
+      <c r="N370"/>
+      <c r="O370"/>
+      <c r="P370"/>
+      <c r="Q370"/>
+      <c r="R370"/>
+      <c r="S370"/>
+      <c r="T370"/>
+      <c r="U370"/>
+      <c r="V370"/>
+      <c r="W370"/>
+      <c r="X370"/>
+    </row>
+    <row r="371" spans="11:24">
+      <c r="K371"/>
+      <c r="L371"/>
+      <c r="M371"/>
+      <c r="N371"/>
+      <c r="O371"/>
+      <c r="P371"/>
+      <c r="Q371"/>
+      <c r="R371"/>
+      <c r="S371"/>
+      <c r="T371"/>
+      <c r="U371"/>
+      <c r="V371"/>
+      <c r="W371"/>
+      <c r="X371"/>
+    </row>
+    <row r="372" spans="11:24">
+      <c r="K372"/>
+      <c r="L372"/>
+      <c r="M372"/>
+      <c r="N372"/>
+      <c r="O372"/>
+      <c r="P372"/>
+      <c r="Q372"/>
+      <c r="R372"/>
+      <c r="S372"/>
+      <c r="T372"/>
+      <c r="U372"/>
+      <c r="V372"/>
+      <c r="W372"/>
+      <c r="X372"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
